--- a/extraction.xlsx
+++ b/extraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\KNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20569A5C-2A60-4928-BB13-A0ED65C75D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CFEDAF-BB5D-47B8-9A8F-9F0507573724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$132</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="27">
   <si>
     <t>Hue</t>
   </si>
@@ -139,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X123"/>
+  <dimension ref="A1:X132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:X123"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5595,1331 +5596,1331 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>5.7904720052083336</v>
+        <v>17.677606608072921</v>
       </c>
       <c r="B70">
-        <v>10.74735188802083</v>
+        <v>12.189493001302081</v>
       </c>
       <c r="C70">
-        <v>9.3064038085937497</v>
+        <v>6.194578450520833</v>
       </c>
       <c r="D70">
-        <v>9.5612831800200914E-6</v>
+        <v>1.913814183795386E-5</v>
       </c>
       <c r="E70">
-        <v>9.2150384713824745E-6</v>
+        <v>1.9518906096236529E-5</v>
       </c>
       <c r="F70">
-        <v>9.7846656102723483E-6</v>
+        <v>1.9091400673728581E-5</v>
       </c>
       <c r="G70">
-        <v>9.3819194527594385E-6</v>
+        <v>1.973160490833159E-5</v>
       </c>
       <c r="H70">
-        <v>50.394069499029698</v>
+        <v>107.0986900299383</v>
       </c>
       <c r="I70">
-        <v>55.396081627442527</v>
+        <v>150.7169960616597</v>
       </c>
       <c r="J70">
-        <v>24.989977816672528</v>
+        <v>144.48186588701699</v>
       </c>
       <c r="K70">
-        <v>56.085103458095688</v>
+        <v>169.01998954249569</v>
       </c>
       <c r="L70">
-        <v>2.9050055804253402E-2</v>
+        <v>2.791497638912829E-2</v>
       </c>
       <c r="M70">
-        <v>2.5711178517862331E-2</v>
+        <v>2.403119464903998E-2</v>
       </c>
       <c r="N70">
-        <v>3.3415436114475602E-2</v>
+        <v>2.478757113713637E-2</v>
       </c>
       <c r="O70">
-        <v>2.6238770165955268E-2</v>
+        <v>2.4728718371986289E-2</v>
       </c>
       <c r="P70">
-        <v>1.474056619559315</v>
+        <v>2.505460571049587</v>
       </c>
       <c r="Q70">
-        <v>1.498849994864015</v>
+        <v>2.6507523695744171</v>
       </c>
       <c r="R70">
-        <v>1.385988666646895</v>
+        <v>2.61559454971357</v>
       </c>
       <c r="S70">
-        <v>1.5034424804377149</v>
+        <v>2.696945541865563</v>
       </c>
       <c r="T70">
-        <v>50.394069499029698</v>
+        <v>107.0986900299383</v>
       </c>
       <c r="U70">
-        <v>55.396081627442527</v>
+        <v>150.7169960616597</v>
       </c>
       <c r="V70">
-        <v>24.989977816672528</v>
+        <v>144.48186588701699</v>
       </c>
       <c r="W70">
-        <v>56.085103458095688</v>
+        <v>169.01998954249569</v>
       </c>
       <c r="X70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>18.493583170572919</v>
+        <v>16.182169596354171</v>
       </c>
       <c r="B71">
-        <v>34.775212402343747</v>
+        <v>11.98677490234375</v>
       </c>
       <c r="C71">
-        <v>26.935775553385419</v>
+        <v>7.1643375651041667</v>
       </c>
       <c r="D71">
-        <v>2.8354573009622549E-5</v>
+        <v>2.3026973490935219E-5</v>
       </c>
       <c r="E71">
-        <v>2.9804562825712191E-5</v>
+        <v>2.2914869822262351E-5</v>
       </c>
       <c r="F71">
-        <v>2.7787623470945702E-5</v>
+        <v>2.2361924286705182E-5</v>
       </c>
       <c r="G71">
-        <v>3.004353613393021E-5</v>
+        <v>2.2741250314115381E-5</v>
       </c>
       <c r="H71">
-        <v>75.695367522330372</v>
+        <v>94.058618480321201</v>
       </c>
       <c r="I71">
-        <v>167.16335716956459</v>
+        <v>159.1290724325294</v>
       </c>
       <c r="J71">
-        <v>152.5527633421105</v>
+        <v>150.6854950825979</v>
       </c>
       <c r="K71">
-        <v>164.96686984335599</v>
+        <v>161.12635740932001</v>
       </c>
       <c r="L71">
-        <v>5.472902091161027E-2</v>
+        <v>3.7387938529823722E-2</v>
       </c>
       <c r="M71">
-        <v>5.240541206109571E-2</v>
+        <v>3.3480354412247379E-2</v>
       </c>
       <c r="N71">
-        <v>5.1874750190251007E-2</v>
+        <v>3.419085254138813E-2</v>
       </c>
       <c r="O71">
-        <v>5.2027231595095043E-2</v>
+        <v>3.4841970387042433E-2</v>
       </c>
       <c r="P71">
-        <v>3.47655500670135</v>
+        <v>2.693132656673495</v>
       </c>
       <c r="Q71">
-        <v>3.8144028146936781</v>
+        <v>2.9772724050353538</v>
       </c>
       <c r="R71">
-        <v>3.6230618591261639</v>
+        <v>2.914680522042687</v>
       </c>
       <c r="S71">
-        <v>3.8288206085687859</v>
+        <v>2.9750308125409308</v>
       </c>
       <c r="T71">
-        <v>75.695367522330372</v>
+        <v>94.058618480321201</v>
       </c>
       <c r="U71">
-        <v>167.16335716956459</v>
+        <v>159.1290724325294</v>
       </c>
       <c r="V71">
-        <v>152.5527633421105</v>
+        <v>150.6854950825979</v>
       </c>
       <c r="W71">
-        <v>164.96686984335599</v>
+        <v>161.12635740932001</v>
       </c>
       <c r="X71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>16.32368570963542</v>
+        <v>14.99692789713542</v>
       </c>
       <c r="B72">
-        <v>29.947830403645831</v>
+        <v>11.349637858072921</v>
       </c>
       <c r="C72">
-        <v>24.802151692708328</v>
+        <v>8.270199381510416</v>
       </c>
       <c r="D72">
-        <v>2.7796020516278319E-5</v>
+        <v>2.288838842979871E-5</v>
       </c>
       <c r="E72">
-        <v>2.7851699736331711E-5</v>
+        <v>2.3403512778637791E-5</v>
       </c>
       <c r="F72">
-        <v>2.8112545804286439E-5</v>
+        <v>2.303297616308261E-5</v>
       </c>
       <c r="G72">
-        <v>2.8470337873086941E-5</v>
+        <v>2.343936878490367E-5</v>
       </c>
       <c r="H72">
-        <v>84.753294563650797</v>
+        <v>71.608072734472117</v>
       </c>
       <c r="I72">
-        <v>153.2585883679472</v>
+        <v>97.96791477543529</v>
       </c>
       <c r="J72">
-        <v>115.1387010275005</v>
+        <v>92.733263289332925</v>
       </c>
       <c r="K72">
-        <v>128.62464190414639</v>
+        <v>109.7079754420481</v>
       </c>
       <c r="L72">
-        <v>5.7756516498667518E-2</v>
+        <v>3.7826507142388548E-2</v>
       </c>
       <c r="M72">
-        <v>5.3687349579409759E-2</v>
+        <v>3.3459144589347997E-2</v>
       </c>
       <c r="N72">
-        <v>5.777134916184451E-2</v>
+        <v>3.489154923515432E-2</v>
       </c>
       <c r="O72">
-        <v>5.6613376042805807E-2</v>
+        <v>3.5197619316646708E-2</v>
       </c>
       <c r="P72">
-        <v>3.2031180877270091</v>
+        <v>2.607811846930852</v>
       </c>
       <c r="Q72">
-        <v>3.5053250379065459</v>
+        <v>2.816747133985309</v>
       </c>
       <c r="R72">
-        <v>3.3268896549070091</v>
+        <v>2.750549734512139</v>
       </c>
       <c r="S72">
-        <v>3.4809023340661058</v>
+        <v>2.861907446884441</v>
       </c>
       <c r="T72">
-        <v>84.753294563650797</v>
+        <v>71.608072734472117</v>
       </c>
       <c r="U72">
-        <v>153.2585883679472</v>
+        <v>97.96791477543529</v>
       </c>
       <c r="V72">
-        <v>115.1387010275005</v>
+        <v>92.733263289332925</v>
       </c>
       <c r="W72">
-        <v>128.62464190414639</v>
+        <v>109.7079754420481</v>
       </c>
       <c r="X72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>5.3791691080729169</v>
+        <v>18.531280924479169</v>
       </c>
       <c r="B73">
-        <v>9.8849218749999999</v>
+        <v>9.8931160481770828</v>
       </c>
       <c r="C73">
-        <v>5.6942203776041671</v>
+        <v>6.75498291015625</v>
       </c>
       <c r="D73">
-        <v>5.2552614605930728E-6</v>
+        <v>2.2469595418889609E-5</v>
       </c>
       <c r="E73">
-        <v>4.7450664672868173E-6</v>
+        <v>2.2965805826532551E-5</v>
       </c>
       <c r="F73">
-        <v>6.7336677190634723E-6</v>
+        <v>2.2362679558783459E-5</v>
       </c>
       <c r="G73">
-        <v>4.7826606706409378E-6</v>
+        <v>2.296510478941721E-5</v>
       </c>
       <c r="H73">
-        <v>46.284581564845041</v>
+        <v>103.4036825468507</v>
       </c>
       <c r="I73">
-        <v>51.962250703508609</v>
+        <v>172.68840649085169</v>
       </c>
       <c r="J73">
-        <v>21.78033105608495</v>
+        <v>168.50857834412929</v>
       </c>
       <c r="K73">
-        <v>51.08587263284462</v>
+        <v>178.93774757812031</v>
       </c>
       <c r="L73">
-        <v>2.197288256476946E-2</v>
+        <v>3.5721455427220578E-2</v>
       </c>
       <c r="M73">
-        <v>1.9906542194511889E-2</v>
+        <v>2.9538608824914141E-2</v>
       </c>
       <c r="N73">
-        <v>2.9374152947218291E-2</v>
+        <v>2.7672277831173962E-2</v>
       </c>
       <c r="O73">
-        <v>1.9902151985487091E-2</v>
+        <v>2.9193153395216751E-2</v>
       </c>
       <c r="P73">
-        <v>1.5927298045321781</v>
+        <v>2.7090246769651269</v>
       </c>
       <c r="Q73">
-        <v>1.6113375228273781</v>
+        <v>2.9614543120466208</v>
       </c>
       <c r="R73">
-        <v>1.5332157991548589</v>
+        <v>2.9172758363422528</v>
       </c>
       <c r="S73">
-        <v>1.6084350819732129</v>
+        <v>2.9609617332299392</v>
       </c>
       <c r="T73">
-        <v>46.284581564845041</v>
+        <v>103.4036825468507</v>
       </c>
       <c r="U73">
-        <v>51.962250703508609</v>
+        <v>172.68840649085169</v>
       </c>
       <c r="V73">
-        <v>21.78033105608495</v>
+        <v>168.50857834412929</v>
       </c>
       <c r="W73">
-        <v>51.08587263284462</v>
+        <v>178.93774757812031</v>
       </c>
       <c r="X73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>6.4472957356770833</v>
+        <v>19.446712239583331</v>
       </c>
       <c r="B74">
-        <v>12.31543701171875</v>
+        <v>14.489658203125</v>
       </c>
       <c r="C74">
-        <v>9.7731575520833331</v>
+        <v>9.5442431640625003</v>
       </c>
       <c r="D74">
-        <v>1.11106984052043E-5</v>
+        <v>2.577017189708344E-5</v>
       </c>
       <c r="E74">
-        <v>1.1265857938883E-5</v>
+        <v>2.7293615270630601E-5</v>
       </c>
       <c r="F74">
-        <v>1.1429707788434911E-5</v>
+        <v>2.626569131112291E-5</v>
       </c>
       <c r="G74">
-        <v>1.1076723883459629E-5</v>
+        <v>2.8014844531362689E-5</v>
       </c>
       <c r="H74">
-        <v>51.141197572353583</v>
+        <v>77.741166150744732</v>
       </c>
       <c r="I74">
-        <v>55.846495631660119</v>
+        <v>145.75431249278799</v>
       </c>
       <c r="J74">
-        <v>22.844461409929622</v>
+        <v>141.64662557309481</v>
       </c>
       <c r="K74">
-        <v>56.29592034622744</v>
+        <v>148.9249154521477</v>
       </c>
       <c r="L74">
-        <v>3.206363973413668E-2</v>
+        <v>3.6800134773754788E-2</v>
       </c>
       <c r="M74">
-        <v>3.0109148788786219E-2</v>
+        <v>3.2572977982948143E-2</v>
       </c>
       <c r="N74">
-        <v>3.4635080816929752E-2</v>
+        <v>3.2777402819729858E-2</v>
       </c>
       <c r="O74">
-        <v>2.983445707631251E-2</v>
+        <v>3.2505393301471897E-2</v>
       </c>
       <c r="P74">
-        <v>1.5346801470771789</v>
+        <v>2.839973890895366</v>
       </c>
       <c r="Q74">
-        <v>1.5961088730783051</v>
+        <v>3.2107509200750348</v>
       </c>
       <c r="R74">
-        <v>1.439661004095397</v>
+        <v>3.1418990577002659</v>
       </c>
       <c r="S74">
-        <v>1.58893662768434</v>
+        <v>3.2457269566355582</v>
       </c>
       <c r="T74">
-        <v>51.141197572353583</v>
+        <v>77.741166150744732</v>
       </c>
       <c r="U74">
-        <v>55.846495631660119</v>
+        <v>145.75431249278799</v>
       </c>
       <c r="V74">
-        <v>22.844461409929622</v>
+        <v>141.64662557309481</v>
       </c>
       <c r="W74">
-        <v>56.29592034622744</v>
+        <v>148.9249154521477</v>
       </c>
       <c r="X74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>4.833291015625</v>
+        <v>14.53449300130208</v>
       </c>
       <c r="B75">
-        <v>9.0439803059895834</v>
+        <v>9.1102164713541658</v>
       </c>
       <c r="C75">
-        <v>4.937950846354167</v>
+        <v>7.4083723958333332</v>
       </c>
       <c r="D75">
-        <v>5.0319640654058828E-6</v>
+        <v>2.157769341633776E-5</v>
       </c>
       <c r="E75">
-        <v>4.4142914449066608E-6</v>
+        <v>2.4785752412769619E-5</v>
       </c>
       <c r="F75">
-        <v>6.3125272046912747E-6</v>
+        <v>2.3098493337610399E-5</v>
       </c>
       <c r="G75">
-        <v>4.4917543722267016E-6</v>
+        <v>2.488970610649771E-5</v>
       </c>
       <c r="H75">
-        <v>42.101054014887303</v>
+        <v>74.924197010200075</v>
       </c>
       <c r="I75">
-        <v>48.132476439931857</v>
+        <v>108.37223393713271</v>
       </c>
       <c r="J75">
-        <v>18.85157545808848</v>
+        <v>100.0115449856733</v>
       </c>
       <c r="K75">
-        <v>46.407976833110943</v>
+        <v>119.3324078688194</v>
       </c>
       <c r="L75">
-        <v>2.1615188328140422E-2</v>
+        <v>3.2837314619366988E-2</v>
       </c>
       <c r="M75">
-        <v>1.8825085247574421E-2</v>
+        <v>3.4872737011153961E-2</v>
       </c>
       <c r="N75">
-        <v>2.7021095770379009E-2</v>
+        <v>3.3074815582094831E-2</v>
       </c>
       <c r="O75">
-        <v>1.9243161103840091E-2</v>
+        <v>3.5130450994015683E-2</v>
       </c>
       <c r="P75">
-        <v>1.429892744705106</v>
+        <v>2.4199120107902519</v>
       </c>
       <c r="Q75">
-        <v>1.449005852894375</v>
+        <v>2.7450549995767251</v>
       </c>
       <c r="R75">
-        <v>1.3958530522653589</v>
+        <v>2.634087482973837</v>
       </c>
       <c r="S75">
-        <v>1.45082210434198</v>
+        <v>2.7880150588373951</v>
       </c>
       <c r="T75">
-        <v>42.101054014887303</v>
+        <v>74.924197010200075</v>
       </c>
       <c r="U75">
-        <v>48.132476439931857</v>
+        <v>108.37223393713271</v>
       </c>
       <c r="V75">
-        <v>18.85157545808848</v>
+        <v>100.0115449856733</v>
       </c>
       <c r="W75">
-        <v>46.407976833110943</v>
+        <v>119.3324078688194</v>
       </c>
       <c r="X75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>7.5803263346354166</v>
+        <v>18.748426106770829</v>
       </c>
       <c r="B76">
-        <v>12.950756835937501</v>
+        <v>8.2796915690104171</v>
       </c>
       <c r="C76">
-        <v>8.1324820963541669</v>
+        <v>5.4949495442708329</v>
       </c>
       <c r="D76">
-        <v>1.5633428976156569E-5</v>
+        <v>1.6233059432273879E-5</v>
       </c>
       <c r="E76">
-        <v>1.2779107148075779E-5</v>
+        <v>1.6776631023595501E-5</v>
       </c>
       <c r="F76">
-        <v>1.38479142262295E-5</v>
+        <v>1.5508320298992971E-5</v>
       </c>
       <c r="G76">
-        <v>1.259639156618376E-5</v>
+        <v>1.6433560734216451E-5</v>
       </c>
       <c r="H76">
-        <v>22.774187477344</v>
+        <v>86.532781164053802</v>
       </c>
       <c r="I76">
-        <v>47.138824586425443</v>
+        <v>146.59820111300971</v>
       </c>
       <c r="J76">
-        <v>41.826539638274987</v>
+        <v>138.45149248540631</v>
       </c>
       <c r="K76">
-        <v>52.366410302358858</v>
+        <v>147.51520061141119</v>
       </c>
       <c r="L76">
-        <v>4.3146023882130492E-2</v>
+        <v>2.750238903264891E-2</v>
       </c>
       <c r="M76">
-        <v>3.4221187062501497E-2</v>
+        <v>2.273712283718296E-2</v>
       </c>
       <c r="N76">
-        <v>3.6962244715800577E-2</v>
+        <v>2.1681205818684431E-2</v>
       </c>
       <c r="O76">
-        <v>3.3626853496094421E-2</v>
+        <v>2.2985701007440781E-2</v>
       </c>
       <c r="P76">
-        <v>2.0299295035518878</v>
+        <v>2.1932661119670991</v>
       </c>
       <c r="Q76">
-        <v>2.1671784258777089</v>
+        <v>2.3819825223636668</v>
       </c>
       <c r="R76">
-        <v>2.1058075005904122</v>
+        <v>2.3258901700521619</v>
       </c>
       <c r="S76">
-        <v>2.179855422456566</v>
+        <v>2.3751885176173588</v>
       </c>
       <c r="T76">
-        <v>22.774187477344</v>
+        <v>86.532781164053802</v>
       </c>
       <c r="U76">
-        <v>47.138824586425443</v>
+        <v>146.59820111300971</v>
       </c>
       <c r="V76">
-        <v>41.826539638274987</v>
+        <v>138.45149248540631</v>
       </c>
       <c r="W76">
-        <v>52.366410302358858</v>
+        <v>147.51520061141119</v>
       </c>
       <c r="X76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>10.93199951171875</v>
+        <v>18.456914876302079</v>
       </c>
       <c r="B77">
-        <v>18.39872314453125</v>
+        <v>8.7810196940104159</v>
       </c>
       <c r="C77">
-        <v>16.568283691406251</v>
+        <v>6.9570141601562501</v>
       </c>
       <c r="D77">
-        <v>2.001839872349702E-5</v>
+        <v>2.073902202569061E-5</v>
       </c>
       <c r="E77">
-        <v>2.145451911952418E-5</v>
+        <v>2.0182817705376881E-5</v>
       </c>
       <c r="F77">
-        <v>1.9618865820153811E-5</v>
+        <v>1.9410483709378191E-5</v>
       </c>
       <c r="G77">
-        <v>2.1992564101152409E-5</v>
+        <v>1.9764356799920629E-5</v>
       </c>
       <c r="H77">
-        <v>29.830820013926601</v>
+        <v>66.325572032804615</v>
       </c>
       <c r="I77">
-        <v>67.368729282400011</v>
+        <v>129.8368122125292</v>
       </c>
       <c r="J77">
-        <v>62.176415956611997</v>
+        <v>124.8965255394623</v>
       </c>
       <c r="K77">
-        <v>71.414248880400336</v>
+        <v>134.08231315394951</v>
       </c>
       <c r="L77">
-        <v>4.6192595691882637E-2</v>
+        <v>3.557608167022467E-2</v>
       </c>
       <c r="M77">
-        <v>4.5030841279227601E-2</v>
+        <v>2.7901264864084389E-2</v>
       </c>
       <c r="N77">
-        <v>4.3455589314649351E-2</v>
+        <v>2.7683985282806429E-2</v>
       </c>
       <c r="O77">
-        <v>4.610347970679321E-2</v>
+        <v>2.6801824732944238E-2</v>
       </c>
       <c r="P77">
-        <v>2.0718679301565008</v>
+        <v>2.3932539846426599</v>
       </c>
       <c r="Q77">
-        <v>2.3456729510599161</v>
+        <v>2.6580803085310101</v>
       </c>
       <c r="R77">
-        <v>2.1718296631202421</v>
+        <v>2.6083551940289458</v>
       </c>
       <c r="S77">
-        <v>2.3810859468558019</v>
+        <v>2.654299263069372</v>
       </c>
       <c r="T77">
-        <v>29.830820013926601</v>
+        <v>66.325572032804615</v>
       </c>
       <c r="U77">
-        <v>67.368729282400011</v>
+        <v>129.8368122125292</v>
       </c>
       <c r="V77">
-        <v>62.176415956611997</v>
+        <v>124.8965255394623</v>
       </c>
       <c r="W77">
-        <v>71.414248880400336</v>
+        <v>134.08231315394951</v>
       </c>
       <c r="X77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>14.626297200520829</v>
+        <v>25.738201497395831</v>
       </c>
       <c r="B78">
-        <v>27.004417317708331</v>
+        <v>15.98677408854167</v>
       </c>
       <c r="C78">
-        <v>21.882354329427081</v>
+        <v>11.3837255859375</v>
       </c>
       <c r="D78">
-        <v>2.716006267841436E-5</v>
+        <v>3.0011618523377591E-5</v>
       </c>
       <c r="E78">
-        <v>2.8845542712871651E-5</v>
+        <v>3.2381560531004527E-5</v>
       </c>
       <c r="F78">
-        <v>2.7080408926413061E-5</v>
+        <v>3.108233922528708E-5</v>
       </c>
       <c r="G78">
-        <v>2.8886500153503561E-5</v>
+        <v>3.2263861287191049E-5</v>
       </c>
       <c r="H78">
-        <v>56.613776083410379</v>
+        <v>103.2315486024321</v>
       </c>
       <c r="I78">
-        <v>108.56394010583359</v>
+        <v>186.836672288187</v>
       </c>
       <c r="J78">
-        <v>98.040637793154687</v>
+        <v>181.34509434255449</v>
       </c>
       <c r="K78">
-        <v>115.38162196042801</v>
+        <v>201.30105826989529</v>
       </c>
       <c r="L78">
-        <v>4.3039680936830853E-2</v>
+        <v>4.0869902065020863E-2</v>
       </c>
       <c r="M78">
-        <v>4.3527667801538363E-2</v>
+        <v>3.9969742669676032E-2</v>
       </c>
       <c r="N78">
-        <v>4.1590282909807139E-2</v>
+        <v>3.8874495800065058E-2</v>
       </c>
       <c r="O78">
-        <v>4.2803833308410137E-2</v>
+        <v>3.9687978755413002E-2</v>
       </c>
       <c r="P78">
-        <v>3.0263538626367938</v>
+        <v>3.1349169221023958</v>
       </c>
       <c r="Q78">
-        <v>3.2980436762951082</v>
+        <v>3.5744972990387058</v>
       </c>
       <c r="R78">
-        <v>3.075670220542277</v>
+        <v>3.4852972309039432</v>
       </c>
       <c r="S78">
-        <v>3.3069324203479371</v>
+        <v>3.616916714816953</v>
       </c>
       <c r="T78">
-        <v>56.613776083410379</v>
+        <v>103.2315486024321</v>
       </c>
       <c r="U78">
-        <v>108.56394010583359</v>
+        <v>186.836672288187</v>
       </c>
       <c r="V78">
-        <v>98.040637793154687</v>
+        <v>181.34509434255449</v>
       </c>
       <c r="W78">
-        <v>115.38162196042801</v>
+        <v>201.30105826989529</v>
       </c>
       <c r="X78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>14.82046793619792</v>
+        <v>16.729247233072918</v>
       </c>
       <c r="B79">
-        <v>23.285999348958331</v>
+        <v>13.71280192057292</v>
       </c>
       <c r="C79">
-        <v>23.741791992187501</v>
+        <v>8.0016593424479172</v>
       </c>
       <c r="D79">
-        <v>2.0873724934779549E-5</v>
+        <v>2.3372790345975439E-5</v>
       </c>
       <c r="E79">
-        <v>2.364255973927548E-5</v>
+        <v>2.639529345541227E-5</v>
       </c>
       <c r="F79">
-        <v>2.11559081085158E-5</v>
+        <v>2.5128675397311111E-5</v>
       </c>
       <c r="G79">
-        <v>2.424968667251051E-5</v>
+        <v>2.6271954445006451E-5</v>
       </c>
       <c r="H79">
-        <v>35.838672960806747</v>
+        <v>72.5414703839064</v>
       </c>
       <c r="I79">
-        <v>88.185143635202181</v>
+        <v>117.2867401637661</v>
       </c>
       <c r="J79">
-        <v>77.638824995561038</v>
+        <v>108.5200545950398</v>
       </c>
       <c r="K79">
-        <v>84.552309201703196</v>
+        <v>126.92874987009711</v>
       </c>
       <c r="L79">
-        <v>4.4339357005513717E-2</v>
+        <v>3.6535807763031398E-2</v>
       </c>
       <c r="M79">
-        <v>4.0637286057890243E-2</v>
+        <v>3.8204279150358178E-2</v>
       </c>
       <c r="N79">
-        <v>4.2626032859789102E-2</v>
+        <v>3.8291842545299583E-2</v>
       </c>
       <c r="O79">
-        <v>4.1122280097430151E-2</v>
+        <v>3.8049550042906069E-2</v>
       </c>
       <c r="P79">
-        <v>2.067108396861399</v>
+        <v>2.5305247537284741</v>
       </c>
       <c r="Q79">
-        <v>2.3823963569737989</v>
+        <v>2.9262550034030879</v>
       </c>
       <c r="R79">
-        <v>2.1721766632717441</v>
+        <v>2.8097036508261271</v>
       </c>
       <c r="S79">
-        <v>2.3907909162882111</v>
+        <v>2.9508911159180928</v>
       </c>
       <c r="T79">
-        <v>35.838672960806747</v>
+        <v>72.5414703839064</v>
       </c>
       <c r="U79">
-        <v>88.185143635202181</v>
+        <v>117.2867401637661</v>
       </c>
       <c r="V79">
-        <v>77.638824995561038</v>
+        <v>108.5200545950398</v>
       </c>
       <c r="W79">
-        <v>84.552309201703196</v>
+        <v>126.92874987009711</v>
       </c>
       <c r="X79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>14.46795003255208</v>
+        <v>18.59899007161458</v>
       </c>
       <c r="B80">
-        <v>24.563688964843749</v>
+        <v>9.9357063802083339</v>
       </c>
       <c r="C80">
-        <v>22.750024414062501</v>
+        <v>6.5618416341145833</v>
       </c>
       <c r="D80">
-        <v>2.2997947742179851E-5</v>
+        <v>1.900952663607849E-5</v>
       </c>
       <c r="E80">
-        <v>2.7812153074307011E-5</v>
+        <v>1.8613292021971121E-5</v>
       </c>
       <c r="F80">
-        <v>2.4410744425815149E-5</v>
+        <v>1.8130300884401789E-5</v>
       </c>
       <c r="G80">
-        <v>2.788034784904831E-5</v>
+        <v>1.894061475460327E-5</v>
       </c>
       <c r="H80">
-        <v>41.824261571783772</v>
+        <v>98.839535418449358</v>
       </c>
       <c r="I80">
-        <v>98.646207436610979</v>
+        <v>154.29421343289891</v>
       </c>
       <c r="J80">
-        <v>86.542610235425258</v>
+        <v>141.9975067282316</v>
       </c>
       <c r="K80">
-        <v>94.946486712506555</v>
+        <v>160.84460951698171</v>
       </c>
       <c r="L80">
-        <v>4.7935649983244941E-2</v>
+        <v>3.1447223333922969E-2</v>
       </c>
       <c r="M80">
-        <v>5.1500323182988077E-2</v>
+        <v>2.586043201362739E-2</v>
       </c>
       <c r="N80">
-        <v>4.6129640882567442E-2</v>
+        <v>2.580162531924473E-2</v>
       </c>
       <c r="O80">
-        <v>5.0824471061704582E-2</v>
+        <v>2.5946596589787901E-2</v>
       </c>
       <c r="P80">
-        <v>2.3161766515191342</v>
+        <v>2.5497511751797002</v>
       </c>
       <c r="Q80">
-        <v>2.7769223442065831</v>
+        <v>2.7153448247678291</v>
       </c>
       <c r="R80">
-        <v>2.5078453571563668</v>
+        <v>2.685464914708624</v>
       </c>
       <c r="S80">
-        <v>2.7595694655069289</v>
+        <v>2.737596804836588</v>
       </c>
       <c r="T80">
-        <v>41.824261571783772</v>
+        <v>98.839535418449358</v>
       </c>
       <c r="U80">
-        <v>98.646207436610979</v>
+        <v>154.29421343289891</v>
       </c>
       <c r="V80">
-        <v>86.542610235425258</v>
+        <v>141.9975067282316</v>
       </c>
       <c r="W80">
-        <v>94.946486712506555</v>
+        <v>160.84460951698171</v>
       </c>
       <c r="X80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>15.512253417968751</v>
+        <v>19.28744140625</v>
       </c>
       <c r="B81">
-        <v>25.362902018229171</v>
+        <v>12.193868815104169</v>
       </c>
       <c r="C81">
-        <v>24.861933593749999</v>
+        <v>8.7055753580729167</v>
       </c>
       <c r="D81">
-        <v>2.196003048855071E-5</v>
+        <v>2.746030676442045E-5</v>
       </c>
       <c r="E81">
-        <v>2.281152074793891E-5</v>
+        <v>2.7405431694869521E-5</v>
       </c>
       <c r="F81">
-        <v>2.142082514653947E-5</v>
+        <v>2.766674311219947E-5</v>
       </c>
       <c r="G81">
-        <v>2.293882828459331E-5</v>
+        <v>2.70461638994195E-5</v>
       </c>
       <c r="H81">
-        <v>57.041002742025647</v>
+        <v>89.958993984887499</v>
       </c>
       <c r="I81">
-        <v>114.9329492369197</v>
+        <v>158.4744629891926</v>
       </c>
       <c r="J81">
-        <v>95.720459802843834</v>
+        <v>150.3716071415426</v>
       </c>
       <c r="K81">
-        <v>111.4723804894719</v>
+        <v>160.98583491055169</v>
       </c>
       <c r="L81">
-        <v>4.5931980546861519E-2</v>
+        <v>3.9688919277536587E-2</v>
       </c>
       <c r="M81">
-        <v>4.10105528108798E-2</v>
+        <v>4.0625547511412168E-2</v>
       </c>
       <c r="N81">
-        <v>4.3967613496635152E-2</v>
+        <v>4.2319962366085227E-2</v>
       </c>
       <c r="O81">
-        <v>4.1673178344769857E-2</v>
+        <v>4.0538399918815492E-2</v>
       </c>
       <c r="P81">
-        <v>2.7636286587873129</v>
+        <v>2.9225708099069592</v>
       </c>
       <c r="Q81">
-        <v>2.976743717614545</v>
+        <v>3.3462001113799338</v>
       </c>
       <c r="R81">
-        <v>2.8146250284042482</v>
+        <v>3.3202544742856732</v>
       </c>
       <c r="S81">
-        <v>2.9868046274510891</v>
+        <v>3.3648833493294559</v>
       </c>
       <c r="T81">
-        <v>57.041002742025647</v>
+        <v>89.958993984887499</v>
       </c>
       <c r="U81">
-        <v>114.9329492369197</v>
+        <v>158.4744629891926</v>
       </c>
       <c r="V81">
-        <v>95.720459802843834</v>
+        <v>150.3716071415426</v>
       </c>
       <c r="W81">
-        <v>111.4723804894719</v>
+        <v>160.98583491055169</v>
       </c>
       <c r="X81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>14.022308756510419</v>
+        <v>21.890400390625</v>
       </c>
       <c r="B82">
-        <v>23.205872395833332</v>
+        <v>12.28332763671875</v>
       </c>
       <c r="C82">
-        <v>21.42857828776042</v>
+        <v>7.4276188151041671</v>
       </c>
       <c r="D82">
-        <v>2.4947951109002469E-5</v>
+        <v>2.4176569907477591E-5</v>
       </c>
       <c r="E82">
-        <v>2.568224430016087E-5</v>
+        <v>2.046461788653437E-5</v>
       </c>
       <c r="F82">
-        <v>2.4670061201725639E-5</v>
+        <v>2.0048797755083179E-5</v>
       </c>
       <c r="G82">
-        <v>2.5476563224460619E-5</v>
+        <v>2.1062919920839681E-5</v>
       </c>
       <c r="H82">
-        <v>51.615473995755622</v>
+        <v>74.71239328723027</v>
       </c>
       <c r="I82">
-        <v>108.5122613819442</v>
+        <v>146.1134860063367</v>
       </c>
       <c r="J82">
-        <v>92.62163475818781</v>
+        <v>130.91981516894111</v>
       </c>
       <c r="K82">
-        <v>101.1482584328956</v>
+        <v>138.64301372485821</v>
       </c>
       <c r="L82">
-        <v>4.5405160120161367E-2</v>
+        <v>4.3114122262902413E-2</v>
       </c>
       <c r="M82">
-        <v>4.0818191746854429E-2</v>
+        <v>3.2270519138452178E-2</v>
       </c>
       <c r="N82">
-        <v>4.385215643525528E-2</v>
+        <v>3.3159760830064729E-2</v>
       </c>
       <c r="O82">
-        <v>4.1293229510539833E-2</v>
+        <v>3.3625005004281151E-2</v>
       </c>
       <c r="P82">
-        <v>2.7127522904269261</v>
+        <v>2.5790682568991601</v>
       </c>
       <c r="Q82">
-        <v>2.9241540831865351</v>
+        <v>2.7884430567784548</v>
       </c>
       <c r="R82">
-        <v>2.7481452009619058</v>
+        <v>2.7140470255762521</v>
       </c>
       <c r="S82">
-        <v>2.9154049497059251</v>
+        <v>2.7969531349559902</v>
       </c>
       <c r="T82">
-        <v>51.615473995755622</v>
+        <v>74.71239328723027</v>
       </c>
       <c r="U82">
-        <v>108.5122613819442</v>
+        <v>146.1134860063367</v>
       </c>
       <c r="V82">
-        <v>92.62163475818781</v>
+        <v>130.91981516894111</v>
       </c>
       <c r="W82">
-        <v>101.1482584328956</v>
+        <v>138.64301372485821</v>
       </c>
       <c r="X82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>14.14418375651042</v>
+        <v>14.15312744140625</v>
       </c>
       <c r="B83">
-        <v>24.91447184244792</v>
+        <v>11.76201497395833</v>
       </c>
       <c r="C83">
-        <v>22.27348225911458</v>
+        <v>6.5040209960937503</v>
       </c>
       <c r="D83">
-        <v>2.5363939301882379E-5</v>
+        <v>1.8754847953862891E-5</v>
       </c>
       <c r="E83">
-        <v>2.6555747928449299E-5</v>
+        <v>1.8304289324211469E-5</v>
       </c>
       <c r="F83">
-        <v>2.6188681011396059E-5</v>
+        <v>1.7993149367166139E-5</v>
       </c>
       <c r="G83">
-        <v>2.6821534065016491E-5</v>
+        <v>1.8058529949934829E-5</v>
       </c>
       <c r="H83">
-        <v>39.719679172302087</v>
+        <v>79.717957530095362</v>
       </c>
       <c r="I83">
-        <v>94.816505180882771</v>
+        <v>116.90982326164161</v>
       </c>
       <c r="J83">
-        <v>82.044859253294987</v>
+        <v>110.1269506558006</v>
       </c>
       <c r="K83">
-        <v>90.479698287113123</v>
+        <v>132.8921805204001</v>
       </c>
       <c r="L83">
-        <v>5.2453836673744647E-2</v>
+        <v>3.7160165472016837E-2</v>
       </c>
       <c r="M83">
-        <v>5.3966656733138982E-2</v>
+        <v>3.1191074904282658E-2</v>
       </c>
       <c r="N83">
-        <v>5.6358369272995187E-2</v>
+        <v>3.223095039051279E-2</v>
       </c>
       <c r="O83">
-        <v>5.4068110658720851E-2</v>
+        <v>3.002521050603995E-2</v>
       </c>
       <c r="P83">
-        <v>2.4779474288244261</v>
+        <v>2.3351267086425662</v>
       </c>
       <c r="Q83">
-        <v>2.855739224399954</v>
+        <v>2.494200023135392</v>
       </c>
       <c r="R83">
-        <v>2.6855285824364041</v>
+        <v>2.4607552859848738</v>
       </c>
       <c r="S83">
-        <v>2.8663068187759562</v>
+        <v>2.5406830907133591</v>
       </c>
       <c r="T83">
-        <v>39.719679172302087</v>
+        <v>79.717957530095362</v>
       </c>
       <c r="U83">
-        <v>94.816505180882771</v>
+        <v>116.90982326164161</v>
       </c>
       <c r="V83">
-        <v>82.044859253294987</v>
+        <v>110.1269506558006</v>
       </c>
       <c r="W83">
-        <v>90.479698287113123</v>
+        <v>132.8921805204001</v>
       </c>
       <c r="X83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>16.080904947916672</v>
+        <v>13.53181722005208</v>
       </c>
       <c r="B84">
-        <v>28.806386718750002</v>
+        <v>11.567370605468749</v>
       </c>
       <c r="C84">
-        <v>25.285975748697918</v>
+        <v>6.7682462565104169</v>
       </c>
       <c r="D84">
-        <v>2.5873427901534421E-5</v>
+        <v>1.9116956723983359E-5</v>
       </c>
       <c r="E84">
-        <v>2.7026791304524379E-5</v>
+        <v>2.3675186421751879E-5</v>
       </c>
       <c r="F84">
-        <v>2.536861355221888E-5</v>
+        <v>2.2026731458320609E-5</v>
       </c>
       <c r="G84">
-        <v>2.67961005456054E-5</v>
+        <v>2.3199226411926401E-5</v>
       </c>
       <c r="H84">
-        <v>52.900386960359633</v>
+        <v>51.843805156580139</v>
       </c>
       <c r="I84">
-        <v>115.0706364266419</v>
+        <v>86.611632213363961</v>
       </c>
       <c r="J84">
-        <v>98.454939861171255</v>
+        <v>79.324558195022945</v>
       </c>
       <c r="K84">
-        <v>110.15179090884421</v>
+        <v>88.508353319600587</v>
       </c>
       <c r="L84">
-        <v>4.9117748017525102E-2</v>
+        <v>3.1862578253459659E-2</v>
       </c>
       <c r="M84">
-        <v>4.3339857765805463E-2</v>
+        <v>3.3415111938102413E-2</v>
       </c>
       <c r="N84">
-        <v>4.703660867279677E-2</v>
+        <v>3.2591141953639893E-2</v>
       </c>
       <c r="O84">
-        <v>4.3993097168604001E-2</v>
+        <v>3.3217847387004507E-2</v>
       </c>
       <c r="P84">
-        <v>2.824976928109753</v>
+        <v>2.0840235612644982</v>
       </c>
       <c r="Q84">
-        <v>3.0980628409919309</v>
+        <v>2.4762254971357951</v>
       </c>
       <c r="R84">
-        <v>2.8942940630809249</v>
+        <v>2.3520544526578222</v>
       </c>
       <c r="S84">
-        <v>3.0935012304660852</v>
+        <v>2.4881518904520492</v>
       </c>
       <c r="T84">
-        <v>52.900386960359633</v>
+        <v>51.843805156580139</v>
       </c>
       <c r="U84">
-        <v>115.0706364266419</v>
+        <v>86.611632213363961</v>
       </c>
       <c r="V84">
-        <v>98.454939861171255</v>
+        <v>79.324558195022945</v>
       </c>
       <c r="W84">
-        <v>110.15179090884421</v>
+        <v>88.508353319600587</v>
       </c>
       <c r="X84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>15.041794433593751</v>
+        <v>10.94594156901042</v>
       </c>
       <c r="B85">
-        <v>27.910236002604169</v>
+        <v>8.2138810221354159</v>
       </c>
       <c r="C85">
-        <v>23.823379720052081</v>
+        <v>6.8763142903645837</v>
       </c>
       <c r="D85">
-        <v>2.7511019133165001E-5</v>
+        <v>1.7593633203009E-5</v>
       </c>
       <c r="E85">
-        <v>2.8369397902430991E-5</v>
+        <v>1.6213493332385921E-5</v>
       </c>
       <c r="F85">
-        <v>2.7535808528694361E-5</v>
+        <v>1.57423642516792E-5</v>
       </c>
       <c r="G85">
-        <v>2.836679797204082E-5</v>
+        <v>1.5586599429029951E-5</v>
       </c>
       <c r="H85">
-        <v>59.747690225506147</v>
+        <v>52.719468876653252</v>
       </c>
       <c r="I85">
-        <v>118.4044770880014</v>
+        <v>86.023666034141229</v>
       </c>
       <c r="J85">
-        <v>107.0712877703664</v>
+        <v>79.854044999994173</v>
       </c>
       <c r="K85">
-        <v>124.71600677200939</v>
+        <v>90.167811018671969</v>
       </c>
       <c r="L85">
-        <v>5.2923213261953247E-2</v>
+        <v>4.0058914832970548E-2</v>
       </c>
       <c r="M85">
-        <v>5.0064863992277157E-2</v>
+        <v>3.1132936704597609E-2</v>
       </c>
       <c r="N85">
-        <v>5.1182212112683569E-2</v>
+        <v>3.4362576851484757E-2</v>
       </c>
       <c r="O85">
-        <v>5.0110098738932511E-2</v>
+        <v>3.05513577596172E-2</v>
       </c>
       <c r="P85">
-        <v>2.883166934720371</v>
+        <v>2.21467666313039</v>
       </c>
       <c r="Q85">
-        <v>3.1592037013485852</v>
+        <v>2.3369191339424531</v>
       </c>
       <c r="R85">
-        <v>2.9700550944586821</v>
+        <v>2.279082116694787</v>
       </c>
       <c r="S85">
-        <v>3.1668793205579511</v>
+        <v>2.3241136484203402</v>
       </c>
       <c r="T85">
-        <v>59.747690225506147</v>
+        <v>52.719468876653252</v>
       </c>
       <c r="U85">
-        <v>118.4044770880014</v>
+        <v>86.023666034141229</v>
       </c>
       <c r="V85">
-        <v>107.0712877703664</v>
+        <v>79.854044999994173</v>
       </c>
       <c r="W85">
-        <v>124.71600677200939</v>
+        <v>90.167811018671969</v>
       </c>
       <c r="X85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>13.570900878906251</v>
+        <v>19.093581542968749</v>
       </c>
       <c r="B86">
-        <v>23.096606445312499</v>
+        <v>11.552443847656249</v>
       </c>
       <c r="C86">
-        <v>21.538465983072921</v>
+        <v>5.858849283854167</v>
       </c>
       <c r="D86">
-        <v>2.2942095773725781E-5</v>
+        <v>1.6665667628282869E-5</v>
       </c>
       <c r="E86">
-        <v>2.4567408477543579E-5</v>
+        <v>1.6474595175104949E-5</v>
       </c>
       <c r="F86">
-        <v>2.3241332830295269E-5</v>
+        <v>1.654364431790686E-5</v>
       </c>
       <c r="G86">
-        <v>2.4660818492709642E-5</v>
+        <v>1.7150583772256701E-5</v>
       </c>
       <c r="H86">
-        <v>44.614819378948269</v>
+        <v>113.05721841862309</v>
       </c>
       <c r="I86">
-        <v>91.816083771313416</v>
+        <v>194.46650203053861</v>
       </c>
       <c r="J86">
-        <v>79.354828494487691</v>
+        <v>177.20449001668251</v>
       </c>
       <c r="K86">
-        <v>94.957206881005234</v>
+        <v>179.9659713817874</v>
       </c>
       <c r="L86">
-        <v>5.2219586771568863E-2</v>
+        <v>2.8196728818336909E-2</v>
       </c>
       <c r="M86">
-        <v>4.8117768305715597E-2</v>
+        <v>2.3987157108683169E-2</v>
       </c>
       <c r="N86">
-        <v>5.039223408818104E-2</v>
+        <v>2.427000770669532E-2</v>
       </c>
       <c r="O86">
-        <v>4.9253516515374157E-2</v>
+        <v>2.4279952790757321E-2</v>
       </c>
       <c r="P86">
-        <v>2.377418224890425</v>
+        <v>2.423285215709527</v>
       </c>
       <c r="Q86">
-        <v>2.6973451773259418</v>
+        <v>2.608369069526526</v>
       </c>
       <c r="R86">
-        <v>2.5251506833117809</v>
+        <v>2.5767180693181082</v>
       </c>
       <c r="S86">
-        <v>2.7162067551730842</v>
+        <v>2.6029156638881088</v>
       </c>
       <c r="T86">
-        <v>44.614819378948269</v>
+        <v>113.05721841862309</v>
       </c>
       <c r="U86">
-        <v>91.816083771313416</v>
+        <v>194.46650203053861</v>
       </c>
       <c r="V86">
-        <v>79.354828494487691</v>
+        <v>177.20449001668251</v>
       </c>
       <c r="W86">
-        <v>94.957206881005234</v>
+        <v>179.9659713817874</v>
       </c>
       <c r="X86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>13.713914388020831</v>
+        <v>5.7904720052083336</v>
       </c>
       <c r="B87">
-        <v>24.499692382812501</v>
+        <v>10.74735188802083</v>
       </c>
       <c r="C87">
-        <v>21.686891276041671</v>
+        <v>9.3064038085937497</v>
       </c>
       <c r="D87">
-        <v>2.253847783939815E-5</v>
+        <v>9.5612831800200914E-6</v>
       </c>
       <c r="E87">
-        <v>2.509110128098067E-5</v>
+        <v>9.2150384713824745E-6</v>
       </c>
       <c r="F87">
-        <v>2.3362521859633849E-5</v>
+        <v>9.7846656102723483E-6</v>
       </c>
       <c r="G87">
-        <v>2.4688359810439091E-5</v>
+        <v>9.3819194527594385E-6</v>
       </c>
       <c r="H87">
-        <v>40.325399377623462</v>
+        <v>50.394069499029698</v>
       </c>
       <c r="I87">
-        <v>91.479204051424489</v>
+        <v>55.396081627442527</v>
       </c>
       <c r="J87">
-        <v>77.344704845556222</v>
+        <v>24.989977816672528</v>
       </c>
       <c r="K87">
-        <v>88.515218613375069</v>
+        <v>56.085103458095688</v>
       </c>
       <c r="L87">
-        <v>5.266490689861613E-2</v>
+        <v>2.9050055804253402E-2</v>
       </c>
       <c r="M87">
-        <v>5.2689047195560022E-2</v>
+        <v>2.5711178517862331E-2</v>
       </c>
       <c r="N87">
-        <v>5.25750203429751E-2</v>
+        <v>3.3415436114475602E-2</v>
       </c>
       <c r="O87">
-        <v>5.2001007588303852E-2</v>
+        <v>2.6238770165955268E-2</v>
       </c>
       <c r="P87">
-        <v>2.1928468762749258</v>
+        <v>1.474056619559315</v>
       </c>
       <c r="Q87">
-        <v>2.570213317851151</v>
+        <v>1.498849994864015</v>
       </c>
       <c r="R87">
-        <v>2.353378331276458</v>
+        <v>1.385988666646895</v>
       </c>
       <c r="S87">
-        <v>2.5300651667980971</v>
+        <v>1.5034424804377149</v>
       </c>
       <c r="T87">
-        <v>40.325399377623462</v>
+        <v>50.394069499029698</v>
       </c>
       <c r="U87">
-        <v>91.479204051424489</v>
+        <v>55.396081627442527</v>
       </c>
       <c r="V87">
-        <v>77.344704845556222</v>
+        <v>24.989977816672528</v>
       </c>
       <c r="W87">
-        <v>88.515218613375069</v>
+        <v>56.085103458095688</v>
       </c>
       <c r="X87" t="s">
         <v>25</v>
@@ -6927,73 +6928,73 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>14.712555338541669</v>
+        <v>18.493583170572919</v>
       </c>
       <c r="B88">
-        <v>27.54591796875</v>
+        <v>34.775212402343747</v>
       </c>
       <c r="C88">
-        <v>23.292896321614581</v>
+        <v>26.935775553385419</v>
       </c>
       <c r="D88">
-        <v>2.3263570504290569E-5</v>
+        <v>2.8354573009622549E-5</v>
       </c>
       <c r="E88">
-        <v>2.689851423420862E-5</v>
+        <v>2.9804562825712191E-5</v>
       </c>
       <c r="F88">
-        <v>2.3154889664398401E-5</v>
+        <v>2.7787623470945702E-5</v>
       </c>
       <c r="G88">
-        <v>2.6357896104887991E-5</v>
+        <v>3.004353613393021E-5</v>
       </c>
       <c r="H88">
-        <v>43.052617280737493</v>
+        <v>75.695367522330372</v>
       </c>
       <c r="I88">
-        <v>106.1911898396922</v>
+        <v>167.16335716956459</v>
       </c>
       <c r="J88">
-        <v>89.692072344976253</v>
+        <v>152.5527633421105</v>
       </c>
       <c r="K88">
-        <v>97.053245712872567</v>
+        <v>164.96686984335599</v>
       </c>
       <c r="L88">
-        <v>4.9352982619602859E-2</v>
+        <v>5.472902091161027E-2</v>
       </c>
       <c r="M88">
-        <v>5.0587571023767791E-2</v>
+        <v>5.240541206109571E-2</v>
       </c>
       <c r="N88">
-        <v>4.6111240884074318E-2</v>
+        <v>5.1874750190251007E-2</v>
       </c>
       <c r="O88">
-        <v>4.9640591596000747E-2</v>
+        <v>5.2027231595095043E-2</v>
       </c>
       <c r="P88">
-        <v>2.4736898285208428</v>
+        <v>3.47655500670135</v>
       </c>
       <c r="Q88">
-        <v>2.8770264258910472</v>
+        <v>3.8144028146936781</v>
       </c>
       <c r="R88">
-        <v>2.5908633559548462</v>
+        <v>3.6230618591261639</v>
       </c>
       <c r="S88">
-        <v>2.857481465831087</v>
+        <v>3.8288206085687859</v>
       </c>
       <c r="T88">
-        <v>43.052617280737493</v>
+        <v>75.695367522330372</v>
       </c>
       <c r="U88">
-        <v>106.1911898396922</v>
+        <v>167.16335716956459</v>
       </c>
       <c r="V88">
-        <v>89.692072344976253</v>
+        <v>152.5527633421105</v>
       </c>
       <c r="W88">
-        <v>97.053245712872567</v>
+        <v>164.96686984335599</v>
       </c>
       <c r="X88" t="s">
         <v>25</v>
@@ -7001,73 +7002,73 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>13.7386669921875</v>
+        <v>16.32368570963542</v>
       </c>
       <c r="B89">
-        <v>22.62125162760417</v>
+        <v>29.947830403645831</v>
       </c>
       <c r="C89">
-        <v>22.136984863281249</v>
+        <v>24.802151692708328</v>
       </c>
       <c r="D89">
-        <v>2.0721176044570449E-5</v>
+        <v>2.7796020516278319E-5</v>
       </c>
       <c r="E89">
-        <v>2.301916097798363E-5</v>
+        <v>2.7851699736331711E-5</v>
       </c>
       <c r="F89">
-        <v>2.0663074329500151E-5</v>
+        <v>2.8112545804286439E-5</v>
       </c>
       <c r="G89">
-        <v>2.2958296627633781E-5</v>
+        <v>2.8470337873086941E-5</v>
       </c>
       <c r="H89">
-        <v>47.299506828061872</v>
+        <v>84.753294563650797</v>
       </c>
       <c r="I89">
-        <v>97.42116245216198</v>
+        <v>153.2585883679472</v>
       </c>
       <c r="J89">
-        <v>82.796865858378709</v>
+        <v>115.1387010275005</v>
       </c>
       <c r="K89">
-        <v>93.287239309084981</v>
+        <v>128.62464190414639</v>
       </c>
       <c r="L89">
-        <v>4.2039975892702058E-2</v>
+        <v>5.7756516498667518E-2</v>
       </c>
       <c r="M89">
-        <v>4.1062579507285098E-2</v>
+        <v>5.3687349579409759E-2</v>
       </c>
       <c r="N89">
-        <v>4.2732819745613673E-2</v>
+        <v>5.777134916184451E-2</v>
       </c>
       <c r="O89">
-        <v>4.1083563470314659E-2</v>
+        <v>5.6613376042805807E-2</v>
       </c>
       <c r="P89">
-        <v>2.2227102935195808</v>
+        <v>3.2031180877270091</v>
       </c>
       <c r="Q89">
-        <v>2.4979221884013012</v>
+        <v>3.5053250379065459</v>
       </c>
       <c r="R89">
-        <v>2.2867171675292601</v>
+        <v>3.3268896549070091</v>
       </c>
       <c r="S89">
-        <v>2.4932497899846231</v>
+        <v>3.4809023340661058</v>
       </c>
       <c r="T89">
-        <v>47.299506828061872</v>
+        <v>84.753294563650797</v>
       </c>
       <c r="U89">
-        <v>97.42116245216198</v>
+        <v>153.2585883679472</v>
       </c>
       <c r="V89">
-        <v>82.796865858378709</v>
+        <v>115.1387010275005</v>
       </c>
       <c r="W89">
-        <v>93.287239309084981</v>
+        <v>128.62464190414639</v>
       </c>
       <c r="X89" t="s">
         <v>25</v>
@@ -7075,73 +7076,73 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>12.77849690755208</v>
+        <v>5.3791691080729169</v>
       </c>
       <c r="B90">
-        <v>23.570036621093749</v>
+        <v>9.8849218749999999</v>
       </c>
       <c r="C90">
-        <v>20.013755696614581</v>
+        <v>5.6942203776041671</v>
       </c>
       <c r="D90">
-        <v>2.3436618201838971E-5</v>
+        <v>5.2552614605930728E-6</v>
       </c>
       <c r="E90">
-        <v>2.2938278569719741E-5</v>
+        <v>4.7450664672868173E-6</v>
       </c>
       <c r="F90">
-        <v>2.2989468340051849E-5</v>
+        <v>6.7336677190634723E-6</v>
       </c>
       <c r="G90">
-        <v>2.229978909734456E-5</v>
+        <v>4.7826606706409378E-6</v>
       </c>
       <c r="H90">
-        <v>47.733135639057117</v>
+        <v>46.284581564845041</v>
       </c>
       <c r="I90">
-        <v>101.0537268562278</v>
+        <v>51.962250703508609</v>
       </c>
       <c r="J90">
-        <v>82.996063298172942</v>
+        <v>21.78033105608495</v>
       </c>
       <c r="K90">
-        <v>98.924375393281693</v>
+        <v>51.08587263284462</v>
       </c>
       <c r="L90">
-        <v>5.7708260530028782E-2</v>
+        <v>2.197288256476946E-2</v>
       </c>
       <c r="M90">
-        <v>5.1377190772572287E-2</v>
+        <v>1.9906542194511889E-2</v>
       </c>
       <c r="N90">
-        <v>5.535141488659389E-2</v>
+        <v>2.9374152947218291E-2</v>
       </c>
       <c r="O90">
-        <v>5.0277198133916803E-2</v>
+        <v>1.9902151985487091E-2</v>
       </c>
       <c r="P90">
-        <v>2.4781424275027319</v>
+        <v>1.5927298045321781</v>
       </c>
       <c r="Q90">
-        <v>2.7472685085466089</v>
+        <v>1.6113375228273781</v>
       </c>
       <c r="R90">
-        <v>2.5949027404499989</v>
+        <v>1.5332157991548589</v>
       </c>
       <c r="S90">
-        <v>2.7375775676099541</v>
+        <v>1.6084350819732129</v>
       </c>
       <c r="T90">
-        <v>47.733135639057117</v>
+        <v>46.284581564845041</v>
       </c>
       <c r="U90">
-        <v>101.0537268562278</v>
+        <v>51.962250703508609</v>
       </c>
       <c r="V90">
-        <v>82.996063298172942</v>
+        <v>21.78033105608495</v>
       </c>
       <c r="W90">
-        <v>98.924375393281693</v>
+        <v>51.08587263284462</v>
       </c>
       <c r="X90" t="s">
         <v>25</v>
@@ -7149,73 +7150,73 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>14.86751953125</v>
+        <v>6.4472957356770833</v>
       </c>
       <c r="B91">
-        <v>32.050900878906248</v>
+        <v>12.31543701171875</v>
       </c>
       <c r="C91">
-        <v>24.052985026041672</v>
+        <v>9.7731575520833331</v>
       </c>
       <c r="D91">
-        <v>1.9041710064908909E-5</v>
+        <v>1.11106984052043E-5</v>
       </c>
       <c r="E91">
-        <v>1.8921770448423681E-5</v>
+        <v>1.1265857938883E-5</v>
       </c>
       <c r="F91">
-        <v>1.8744970494910959E-5</v>
+        <v>1.1429707788434911E-5</v>
       </c>
       <c r="G91">
-        <v>1.9826922521151859E-5</v>
+        <v>1.1076723883459629E-5</v>
       </c>
       <c r="H91">
-        <v>76.082300879885508</v>
+        <v>51.141197572353583</v>
       </c>
       <c r="I91">
-        <v>130.6965278306227</v>
+        <v>55.846495631660119</v>
       </c>
       <c r="J91">
-        <v>101.43543146202759</v>
+        <v>22.844461409929622</v>
       </c>
       <c r="K91">
-        <v>120.2755118489719</v>
+        <v>56.29592034622744</v>
       </c>
       <c r="L91">
-        <v>4.4613256089253317E-2</v>
+        <v>3.206363973413668E-2</v>
       </c>
       <c r="M91">
-        <v>4.0555293822746682E-2</v>
+        <v>3.0109148788786219E-2</v>
       </c>
       <c r="N91">
-        <v>4.3458501827582291E-2</v>
+        <v>3.4635080816929752E-2</v>
       </c>
       <c r="O91">
-        <v>4.3048254358503277E-2</v>
+        <v>2.983445707631251E-2</v>
       </c>
       <c r="P91">
-        <v>2.4347111862793258</v>
+        <v>1.5346801470771789</v>
       </c>
       <c r="Q91">
-        <v>2.6050305484128589</v>
+        <v>1.5961088730783051</v>
       </c>
       <c r="R91">
-        <v>2.4868948696714468</v>
+        <v>1.439661004095397</v>
       </c>
       <c r="S91">
-        <v>2.6303450963179631</v>
+        <v>1.58893662768434</v>
       </c>
       <c r="T91">
-        <v>76.082300879885508</v>
+        <v>51.141197572353583</v>
       </c>
       <c r="U91">
-        <v>130.6965278306227</v>
+        <v>55.846495631660119</v>
       </c>
       <c r="V91">
-        <v>101.43543146202759</v>
+        <v>22.844461409929622</v>
       </c>
       <c r="W91">
-        <v>120.2755118489719</v>
+        <v>56.29592034622744</v>
       </c>
       <c r="X91" t="s">
         <v>25</v>
@@ -7223,73 +7224,73 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>14.19601155598958</v>
+        <v>4.833291015625</v>
       </c>
       <c r="B92">
-        <v>25.24031494140625</v>
+        <v>9.0439803059895834</v>
       </c>
       <c r="C92">
-        <v>21.861531575520829</v>
+        <v>4.937950846354167</v>
       </c>
       <c r="D92">
-        <v>2.3386770914235541E-5</v>
+        <v>5.0319640654058828E-6</v>
       </c>
       <c r="E92">
-        <v>2.379349898934692E-5</v>
+        <v>4.4142914449066608E-6</v>
       </c>
       <c r="F92">
-        <v>2.188899340000366E-5</v>
+        <v>6.3125272046912747E-6</v>
       </c>
       <c r="G92">
-        <v>2.391947542591983E-5</v>
+        <v>4.4917543722267016E-6</v>
       </c>
       <c r="H92">
-        <v>62.086175393116093</v>
+        <v>42.101054014887303</v>
       </c>
       <c r="I92">
-        <v>118.85137498168901</v>
+        <v>48.132476439931857</v>
       </c>
       <c r="J92">
-        <v>102.85262448152081</v>
+        <v>18.85157545808848</v>
       </c>
       <c r="K92">
-        <v>121.8236912368874</v>
+        <v>46.407976833110943</v>
       </c>
       <c r="L92">
-        <v>4.9085670135849149E-2</v>
+        <v>2.1615188328140422E-2</v>
       </c>
       <c r="M92">
-        <v>4.2229459270915939E-2</v>
+        <v>1.8825085247574421E-2</v>
       </c>
       <c r="N92">
-        <v>4.4386395502396071E-2</v>
+        <v>2.7021095770379009E-2</v>
       </c>
       <c r="O92">
-        <v>4.2088762600266838E-2</v>
+        <v>1.9243161103840091E-2</v>
       </c>
       <c r="P92">
-        <v>2.7713352504970739</v>
+        <v>1.429892744705106</v>
       </c>
       <c r="Q92">
-        <v>2.9900586056017331</v>
+        <v>1.449005852894375</v>
       </c>
       <c r="R92">
-        <v>2.8104674824266151</v>
+        <v>1.3958530522653589</v>
       </c>
       <c r="S92">
-        <v>3.007509604439154</v>
+        <v>1.45082210434198</v>
       </c>
       <c r="T92">
-        <v>62.086175393116093</v>
+        <v>42.101054014887303</v>
       </c>
       <c r="U92">
-        <v>118.85137498168901</v>
+        <v>48.132476439931857</v>
       </c>
       <c r="V92">
-        <v>102.85262448152081</v>
+        <v>18.85157545808848</v>
       </c>
       <c r="W92">
-        <v>121.8236912368874</v>
+        <v>46.407976833110943</v>
       </c>
       <c r="X92" t="s">
         <v>25</v>
@@ -7297,73 +7298,73 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>10.229401855468749</v>
+        <v>7.5803263346354166</v>
       </c>
       <c r="B93">
-        <v>20.268359374999999</v>
+        <v>12.950756835937501</v>
       </c>
       <c r="C93">
-        <v>13.3364892578125</v>
+        <v>8.1324820963541669</v>
       </c>
       <c r="D93">
-        <v>2.3751663745792571E-5</v>
+        <v>1.5633428976156569E-5</v>
       </c>
       <c r="E93">
-        <v>2.058365492610424E-5</v>
+        <v>1.2779107148075779E-5</v>
       </c>
       <c r="F93">
-        <v>2.211255728303316E-5</v>
+        <v>1.38479142262295E-5</v>
       </c>
       <c r="G93">
-        <v>2.0750587464174579E-5</v>
+        <v>1.259639156618376E-5</v>
       </c>
       <c r="H93">
-        <v>36.896033758588317</v>
+        <v>22.774187477344</v>
       </c>
       <c r="I93">
-        <v>82.541210991996564</v>
+        <v>47.138824586425443</v>
       </c>
       <c r="J93">
-        <v>69.674801917044078</v>
+        <v>41.826539638274987</v>
       </c>
       <c r="K93">
-        <v>79.384983417735995</v>
+        <v>52.366410302358858</v>
       </c>
       <c r="L93">
-        <v>5.2768377800740743E-2</v>
+        <v>4.3146023882130492E-2</v>
       </c>
       <c r="M93">
-        <v>4.3960742000714953E-2</v>
+        <v>3.4221187062501497E-2</v>
       </c>
       <c r="N93">
-        <v>4.8427605994072913E-2</v>
+        <v>3.6962244715800577E-2</v>
       </c>
       <c r="O93">
-        <v>4.4400279087142842E-2</v>
+        <v>3.3626853496094421E-2</v>
       </c>
       <c r="P93">
-        <v>2.6669222475189289</v>
+        <v>2.0299295035518878</v>
       </c>
       <c r="Q93">
-        <v>2.8793124303999211</v>
+        <v>2.1671784258777089</v>
       </c>
       <c r="R93">
-        <v>2.7726159761065841</v>
+        <v>2.1058075005904122</v>
       </c>
       <c r="S93">
-        <v>2.8728364628942971</v>
+        <v>2.179855422456566</v>
       </c>
       <c r="T93">
-        <v>36.896033758588317</v>
+        <v>22.774187477344</v>
       </c>
       <c r="U93">
-        <v>82.541210991996564</v>
+        <v>47.138824586425443</v>
       </c>
       <c r="V93">
-        <v>69.674801917044078</v>
+        <v>41.826539638274987</v>
       </c>
       <c r="W93">
-        <v>79.384983417735995</v>
+        <v>52.366410302358858</v>
       </c>
       <c r="X93" t="s">
         <v>25</v>
@@ -7371,73 +7372,73 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>9.5167488606770831</v>
+        <v>10.93199951171875</v>
       </c>
       <c r="B94">
-        <v>19.7439501953125</v>
+        <v>18.39872314453125</v>
       </c>
       <c r="C94">
-        <v>13.000387369791669</v>
+        <v>16.568283691406251</v>
       </c>
       <c r="D94">
-        <v>2.0582329182562109E-5</v>
+        <v>2.001839872349702E-5</v>
       </c>
       <c r="E94">
-        <v>1.9309389738209659E-5</v>
+        <v>2.145451911952418E-5</v>
       </c>
       <c r="F94">
-        <v>1.956722543093036E-5</v>
+        <v>1.9618865820153811E-5</v>
       </c>
       <c r="G94">
-        <v>1.9192998159616571E-5</v>
+        <v>2.1992564101152409E-5</v>
       </c>
       <c r="H94">
-        <v>33.117783565680597</v>
+        <v>29.830820013926601</v>
       </c>
       <c r="I94">
-        <v>79.93135115363846</v>
+        <v>67.368729282400011</v>
       </c>
       <c r="J94">
-        <v>67.368252230400969</v>
+        <v>62.176415956611997</v>
       </c>
       <c r="K94">
-        <v>76.293656190341508</v>
+        <v>71.414248880400336</v>
       </c>
       <c r="L94">
-        <v>4.8759903783257778E-2</v>
+        <v>4.6192595691882637E-2</v>
       </c>
       <c r="M94">
-        <v>4.0384670067274163E-2</v>
+        <v>4.5030841279227601E-2</v>
       </c>
       <c r="N94">
-        <v>4.342319929052893E-2</v>
+        <v>4.3455589314649351E-2</v>
       </c>
       <c r="O94">
-        <v>4.0352208531368741E-2</v>
+        <v>4.610347970679321E-2</v>
       </c>
       <c r="P94">
-        <v>2.439805714846961</v>
+        <v>2.0718679301565008</v>
       </c>
       <c r="Q94">
-        <v>2.6557390383785231</v>
+        <v>2.3456729510599161</v>
       </c>
       <c r="R94">
-        <v>2.5189992052136261</v>
+        <v>2.1718296631202421</v>
       </c>
       <c r="S94">
-        <v>2.6441706876356879</v>
+        <v>2.3810859468558019</v>
       </c>
       <c r="T94">
-        <v>33.117783565680597</v>
+        <v>29.830820013926601</v>
       </c>
       <c r="U94">
-        <v>79.93135115363846</v>
+        <v>67.368729282400011</v>
       </c>
       <c r="V94">
-        <v>67.368252230400969</v>
+        <v>62.176415956611997</v>
       </c>
       <c r="W94">
-        <v>76.293656190341508</v>
+        <v>71.414248880400336</v>
       </c>
       <c r="X94" t="s">
         <v>25</v>
@@ -7445,73 +7446,73 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>11.45374267578125</v>
+        <v>14.626297200520829</v>
       </c>
       <c r="B95">
-        <v>22.359833170572919</v>
+        <v>27.004417317708331</v>
       </c>
       <c r="C95">
-        <v>13.936188964843749</v>
+        <v>21.882354329427081</v>
       </c>
       <c r="D95">
-        <v>2.7585194484328101E-5</v>
+        <v>2.716006267841436E-5</v>
       </c>
       <c r="E95">
-        <v>2.320347079996333E-5</v>
+        <v>2.8845542712871651E-5</v>
       </c>
       <c r="F95">
-        <v>2.6477371711133879E-5</v>
+        <v>2.7080408926413061E-5</v>
       </c>
       <c r="G95">
-        <v>2.339780806400432E-5</v>
+        <v>2.8886500153503561E-5</v>
       </c>
       <c r="H95">
-        <v>37.637656504558912</v>
+        <v>56.613776083410379</v>
       </c>
       <c r="I95">
-        <v>71.813516036883797</v>
+        <v>108.56394010583359</v>
       </c>
       <c r="J95">
-        <v>57.777704406143727</v>
+        <v>98.040637793154687</v>
       </c>
       <c r="K95">
-        <v>68.732313276691499</v>
+        <v>115.38162196042801</v>
       </c>
       <c r="L95">
-        <v>5.6856912912482523E-2</v>
+        <v>4.3039680936830853E-2</v>
       </c>
       <c r="M95">
-        <v>4.6323193891909913E-2</v>
+        <v>4.3527667801538363E-2</v>
       </c>
       <c r="N95">
-        <v>5.5321302731705872E-2</v>
+        <v>4.1590282909807139E-2</v>
       </c>
       <c r="O95">
-        <v>4.7285144519858817E-2</v>
+        <v>4.2803833308410137E-2</v>
       </c>
       <c r="P95">
-        <v>2.8717885304284079</v>
+        <v>3.0263538626367938</v>
       </c>
       <c r="Q95">
-        <v>3.0508154272917372</v>
+        <v>3.2980436762951082</v>
       </c>
       <c r="R95">
-        <v>2.9519018156828429</v>
+        <v>3.075670220542277</v>
       </c>
       <c r="S95">
-        <v>3.044507579614085</v>
+        <v>3.3069324203479371</v>
       </c>
       <c r="T95">
-        <v>37.637656504558912</v>
+        <v>56.613776083410379</v>
       </c>
       <c r="U95">
-        <v>71.813516036883797</v>
+        <v>108.56394010583359</v>
       </c>
       <c r="V95">
-        <v>57.777704406143727</v>
+        <v>98.040637793154687</v>
       </c>
       <c r="W95">
-        <v>68.732313276691499</v>
+        <v>115.38162196042801</v>
       </c>
       <c r="X95" t="s">
         <v>25</v>
@@ -7519,73 +7520,73 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>9.7568709309895834</v>
+        <v>14.82046793619792</v>
       </c>
       <c r="B96">
-        <v>19.477654622395828</v>
+        <v>23.285999348958331</v>
       </c>
       <c r="C96">
-        <v>13.30363037109375</v>
+        <v>23.741791992187501</v>
       </c>
       <c r="D96">
-        <v>1.7889208395219539E-5</v>
+        <v>2.0873724934779549E-5</v>
       </c>
       <c r="E96">
-        <v>1.7971756687287391E-5</v>
+        <v>2.364255973927548E-5</v>
       </c>
       <c r="F96">
-        <v>1.7545283068212712E-5</v>
+        <v>2.11559081085158E-5</v>
       </c>
       <c r="G96">
-        <v>1.7854286435540101E-5</v>
+        <v>2.424968667251051E-5</v>
       </c>
       <c r="H96">
-        <v>30.926447255477541</v>
+        <v>35.838672960806747</v>
       </c>
       <c r="I96">
-        <v>67.190907536193421</v>
+        <v>88.185143635202181</v>
       </c>
       <c r="J96">
-        <v>55.363114306731987</v>
+        <v>77.638824995561038</v>
       </c>
       <c r="K96">
-        <v>65.231531418741923</v>
+        <v>84.552309201703196</v>
       </c>
       <c r="L96">
-        <v>4.6645606557740749E-2</v>
+        <v>4.4339357005513717E-2</v>
       </c>
       <c r="M96">
-        <v>4.1047214124865061E-2</v>
+        <v>4.0637286057890243E-2</v>
       </c>
       <c r="N96">
-        <v>4.293562179265413E-2</v>
+        <v>4.2626032859789102E-2</v>
       </c>
       <c r="O96">
-        <v>4.1440853060415853E-2</v>
+        <v>4.1122280097430151E-2</v>
       </c>
       <c r="P96">
-        <v>2.208642966809284</v>
+        <v>2.067108396861399</v>
       </c>
       <c r="Q96">
-        <v>2.445450844087484</v>
+        <v>2.3823963569737989</v>
       </c>
       <c r="R96">
-        <v>2.2912369277015641</v>
+        <v>2.1721766632717441</v>
       </c>
       <c r="S96">
-        <v>2.4374041069533199</v>
+        <v>2.3907909162882111</v>
       </c>
       <c r="T96">
-        <v>30.926447255477541</v>
+        <v>35.838672960806747</v>
       </c>
       <c r="U96">
-        <v>67.190907536193421</v>
+        <v>88.185143635202181</v>
       </c>
       <c r="V96">
-        <v>55.363114306731987</v>
+        <v>77.638824995561038</v>
       </c>
       <c r="W96">
-        <v>65.231531418741923</v>
+        <v>84.552309201703196</v>
       </c>
       <c r="X96" t="s">
         <v>25</v>
@@ -7593,73 +7594,73 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>9.6582324218750006</v>
+        <v>14.46795003255208</v>
       </c>
       <c r="B97">
-        <v>16.493927408854169</v>
+        <v>24.563688964843749</v>
       </c>
       <c r="C97">
-        <v>10.147236328125</v>
+        <v>22.750024414062501</v>
       </c>
       <c r="D97">
-        <v>1.8325852743789049E-5</v>
+        <v>2.2997947742179851E-5</v>
       </c>
       <c r="E97">
-        <v>1.6337476466674871E-5</v>
+        <v>2.7812153074307011E-5</v>
       </c>
       <c r="F97">
-        <v>1.687855191056051E-5</v>
+        <v>2.4410744425815149E-5</v>
       </c>
       <c r="G97">
-        <v>1.6377760992024379E-5</v>
+        <v>2.788034784904831E-5</v>
       </c>
       <c r="H97">
-        <v>39.551372281396723</v>
+        <v>41.824261571783772</v>
       </c>
       <c r="I97">
-        <v>82.811168417356271</v>
+        <v>98.646207436610979</v>
       </c>
       <c r="J97">
-        <v>70.116982478361223</v>
+        <v>86.542610235425258</v>
       </c>
       <c r="K97">
-        <v>76.744024371381897</v>
+        <v>94.946486712506555</v>
       </c>
       <c r="L97">
-        <v>4.54315610992626E-2</v>
+        <v>4.7935649983244941E-2</v>
       </c>
       <c r="M97">
-        <v>3.788685284473798E-2</v>
+        <v>5.1500323182988077E-2</v>
       </c>
       <c r="N97">
-        <v>3.9766239203985303E-2</v>
+        <v>4.6129640882567442E-2</v>
       </c>
       <c r="O97">
-        <v>3.8103547405700232E-2</v>
+        <v>5.0824471061704582E-2</v>
       </c>
       <c r="P97">
-        <v>2.54694087149384</v>
+        <v>2.3161766515191342</v>
       </c>
       <c r="Q97">
-        <v>2.7555179369343912</v>
+        <v>2.7769223442065831</v>
       </c>
       <c r="R97">
-        <v>2.6512846112017558</v>
+        <v>2.5078453571563668</v>
       </c>
       <c r="S97">
-        <v>2.7416393756928348</v>
+        <v>2.7595694655069289</v>
       </c>
       <c r="T97">
-        <v>39.551372281396723</v>
+        <v>41.824261571783772</v>
       </c>
       <c r="U97">
-        <v>82.811168417356271</v>
+        <v>98.646207436610979</v>
       </c>
       <c r="V97">
-        <v>70.116982478361223</v>
+        <v>86.542610235425258</v>
       </c>
       <c r="W97">
-        <v>76.744024371381897</v>
+        <v>94.946486712506555</v>
       </c>
       <c r="X97" t="s">
         <v>25</v>
@@ -7667,73 +7668,73 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>8.9894417317708335</v>
+        <v>15.512253417968751</v>
       </c>
       <c r="B98">
-        <v>17.21961344401042</v>
+        <v>25.362902018229171</v>
       </c>
       <c r="C98">
-        <v>11.673717447916671</v>
+        <v>24.861933593749999</v>
       </c>
       <c r="D98">
-        <v>1.9243513675531508E-5</v>
+        <v>2.196003048855071E-5</v>
       </c>
       <c r="E98">
-        <v>1.5836370851438051E-5</v>
+        <v>2.281152074793891E-5</v>
       </c>
       <c r="F98">
-        <v>1.7661142340686298E-5</v>
+        <v>2.142082514653947E-5</v>
       </c>
       <c r="G98">
-        <v>1.5771935697902029E-5</v>
+        <v>2.293882828459331E-5</v>
       </c>
       <c r="H98">
-        <v>34.37827850508387</v>
+        <v>57.041002742025647</v>
       </c>
       <c r="I98">
-        <v>74.027425171160246</v>
+        <v>114.9329492369197</v>
       </c>
       <c r="J98">
-        <v>62.559361879534769</v>
+        <v>95.720459802843834</v>
       </c>
       <c r="K98">
-        <v>72.34890012102089</v>
+        <v>111.4723804894719</v>
       </c>
       <c r="L98">
-        <v>5.0157501841067133E-2</v>
+        <v>4.5931980546861519E-2</v>
       </c>
       <c r="M98">
-        <v>4.016056382540422E-2</v>
+        <v>4.10105528108798E-2</v>
       </c>
       <c r="N98">
-        <v>4.4202265183994213E-2</v>
+        <v>4.3967613496635152E-2</v>
       </c>
       <c r="O98">
-        <v>3.994809742436977E-2</v>
+        <v>4.1673178344769857E-2</v>
       </c>
       <c r="P98">
-        <v>2.53539754505075</v>
+        <v>2.7636286587873129</v>
       </c>
       <c r="Q98">
-        <v>2.6603129700715229</v>
+        <v>2.976743717614545</v>
       </c>
       <c r="R98">
-        <v>2.5866995718597701</v>
+        <v>2.8146250284042482</v>
       </c>
       <c r="S98">
-        <v>2.6576224715906811</v>
+        <v>2.9868046274510891</v>
       </c>
       <c r="T98">
-        <v>34.37827850508387</v>
+        <v>57.041002742025647</v>
       </c>
       <c r="U98">
-        <v>74.027425171160246</v>
+        <v>114.9329492369197</v>
       </c>
       <c r="V98">
-        <v>62.559361879534769</v>
+        <v>95.720459802843834</v>
       </c>
       <c r="W98">
-        <v>72.34890012102089</v>
+        <v>111.4723804894719</v>
       </c>
       <c r="X98" t="s">
         <v>25</v>
@@ -7741,73 +7742,73 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>9.6686938476562503</v>
+        <v>14.022308756510419</v>
       </c>
       <c r="B99">
-        <v>19.16756510416667</v>
+        <v>23.205872395833332</v>
       </c>
       <c r="C99">
-        <v>12.42820231119792</v>
+        <v>21.42857828776042</v>
       </c>
       <c r="D99">
-        <v>2.3088005902714091E-5</v>
+        <v>2.4947951109002469E-5</v>
       </c>
       <c r="E99">
-        <v>1.9888377429987549E-5</v>
+        <v>2.568224430016087E-5</v>
       </c>
       <c r="F99">
-        <v>2.1179804301073071E-5</v>
+        <v>2.4670061201725639E-5</v>
       </c>
       <c r="G99">
-        <v>1.963189493307344E-5</v>
+        <v>2.5476563224460619E-5</v>
       </c>
       <c r="H99">
-        <v>33.098131969111321</v>
+        <v>51.615473995755622</v>
       </c>
       <c r="I99">
-        <v>78.379379897862066</v>
+        <v>108.5122613819442</v>
       </c>
       <c r="J99">
-        <v>66.135108817768781</v>
+        <v>92.62163475818781</v>
       </c>
       <c r="K99">
-        <v>75.897740671913553</v>
+        <v>101.1482584328956</v>
       </c>
       <c r="L99">
-        <v>5.3218333645682007E-2</v>
+        <v>4.5405160120161367E-2</v>
       </c>
       <c r="M99">
-        <v>4.3937304599929547E-2</v>
+        <v>4.0818191746854429E-2</v>
       </c>
       <c r="N99">
-        <v>4.7284585797033298E-2</v>
+        <v>4.385215643525528E-2</v>
       </c>
       <c r="O99">
-        <v>4.3386915537560057E-2</v>
+        <v>4.1293229510539833E-2</v>
       </c>
       <c r="P99">
-        <v>2.5984827986462329</v>
+        <v>2.7127522904269261</v>
       </c>
       <c r="Q99">
-        <v>2.8025673867238372</v>
+        <v>2.9241540831865351</v>
       </c>
       <c r="R99">
-        <v>2.6929428585553921</v>
+        <v>2.7481452009619058</v>
       </c>
       <c r="S99">
-        <v>2.798691007289364</v>
+        <v>2.9154049497059251</v>
       </c>
       <c r="T99">
-        <v>33.098131969111321</v>
+        <v>51.615473995755622</v>
       </c>
       <c r="U99">
-        <v>78.379379897862066</v>
+        <v>108.5122613819442</v>
       </c>
       <c r="V99">
-        <v>66.135108817768781</v>
+        <v>92.62163475818781</v>
       </c>
       <c r="W99">
-        <v>75.897740671913553</v>
+        <v>101.1482584328956</v>
       </c>
       <c r="X99" t="s">
         <v>25</v>
@@ -7815,73 +7816,73 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>8.1453637695312509</v>
+        <v>14.14418375651042</v>
       </c>
       <c r="B100">
-        <v>15.003806152343749</v>
+        <v>24.91447184244792</v>
       </c>
       <c r="C100">
-        <v>9.838807779947917</v>
+        <v>22.27348225911458</v>
       </c>
       <c r="D100">
-        <v>1.340215840386358E-5</v>
+        <v>2.5363939301882379E-5</v>
       </c>
       <c r="E100">
-        <v>1.082775862025518E-5</v>
+        <v>2.6555747928449299E-5</v>
       </c>
       <c r="F100">
-        <v>1.2429546071881109E-5</v>
+        <v>2.6188681011396059E-5</v>
       </c>
       <c r="G100">
-        <v>1.084141645700551E-5</v>
+        <v>2.6821534065016491E-5</v>
       </c>
       <c r="H100">
-        <v>35.57953144165392</v>
+        <v>39.719679172302087</v>
       </c>
       <c r="I100">
-        <v>73.386279559015577</v>
+        <v>94.816505180882771</v>
       </c>
       <c r="J100">
-        <v>61.866895127931393</v>
+        <v>82.044859253294987</v>
       </c>
       <c r="K100">
-        <v>73.113199611482699</v>
+        <v>90.479698287113123</v>
       </c>
       <c r="L100">
-        <v>4.0100854608235391E-2</v>
+        <v>5.2453836673744647E-2</v>
       </c>
       <c r="M100">
-        <v>3.1571011506035147E-2</v>
+        <v>5.3966656733138982E-2</v>
       </c>
       <c r="N100">
-        <v>3.5783686286637841E-2</v>
+        <v>5.6358369272995187E-2</v>
       </c>
       <c r="O100">
-        <v>3.1469611028471768E-2</v>
+        <v>5.4068110658720851E-2</v>
       </c>
       <c r="P100">
-        <v>2.3207496626851301</v>
+        <v>2.4779474288244261</v>
       </c>
       <c r="Q100">
-        <v>2.415107927217953</v>
+        <v>2.855739224399954</v>
       </c>
       <c r="R100">
-        <v>2.380755401729945</v>
+        <v>2.6855285824364041</v>
       </c>
       <c r="S100">
-        <v>2.4125547408172179</v>
+        <v>2.8663068187759562</v>
       </c>
       <c r="T100">
-        <v>35.57953144165392</v>
+        <v>39.719679172302087</v>
       </c>
       <c r="U100">
-        <v>73.386279559015577</v>
+        <v>94.816505180882771</v>
       </c>
       <c r="V100">
-        <v>61.866895127931393</v>
+        <v>82.044859253294987</v>
       </c>
       <c r="W100">
-        <v>73.113199611482699</v>
+        <v>90.479698287113123</v>
       </c>
       <c r="X100" t="s">
         <v>25</v>
@@ -7889,73 +7890,73 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>9.5456599934895827</v>
+        <v>16.080904947916672</v>
       </c>
       <c r="B101">
-        <v>15.453659667968751</v>
+        <v>28.806386718750002</v>
       </c>
       <c r="C101">
-        <v>9.6127571614583331</v>
+        <v>25.285975748697918</v>
       </c>
       <c r="D101">
-        <v>1.8308600668992151E-5</v>
+        <v>2.5873427901534421E-5</v>
       </c>
       <c r="E101">
-        <v>1.4700663272416091E-5</v>
+        <v>2.7026791304524379E-5</v>
       </c>
       <c r="F101">
-        <v>1.591613508206824E-5</v>
+        <v>2.536861355221888E-5</v>
       </c>
       <c r="G101">
-        <v>1.4840416728744671E-5</v>
+        <v>2.67961005456054E-5</v>
       </c>
       <c r="H101">
-        <v>40.50061820374772</v>
+        <v>52.900386960359633</v>
       </c>
       <c r="I101">
-        <v>85.727501024882542</v>
+        <v>115.0706364266419</v>
       </c>
       <c r="J101">
-        <v>71.191487690338221</v>
+        <v>98.454939861171255</v>
       </c>
       <c r="K101">
-        <v>83.522883357920406</v>
+        <v>110.15179090884421</v>
       </c>
       <c r="L101">
-        <v>4.5720595802936352E-2</v>
+        <v>4.9117748017525102E-2</v>
       </c>
       <c r="M101">
-        <v>3.3576897703472601E-2</v>
+        <v>4.3339857765805463E-2</v>
       </c>
       <c r="N101">
-        <v>3.8413878876345918E-2</v>
+        <v>4.703660867279677E-2</v>
       </c>
       <c r="O101">
-        <v>3.3940305166070529E-2</v>
+        <v>4.3993097168604001E-2</v>
       </c>
       <c r="P101">
-        <v>2.4199357706414482</v>
+        <v>2.824976928109753</v>
       </c>
       <c r="Q101">
-        <v>2.5417480467167359</v>
+        <v>3.0980628409919309</v>
       </c>
       <c r="R101">
-        <v>2.4746016412299898</v>
+        <v>2.8942940630809249</v>
       </c>
       <c r="S101">
-        <v>2.5391571288783661</v>
+        <v>3.0935012304660852</v>
       </c>
       <c r="T101">
-        <v>40.50061820374772</v>
+        <v>52.900386960359633</v>
       </c>
       <c r="U101">
-        <v>85.727501024882542</v>
+        <v>115.0706364266419</v>
       </c>
       <c r="V101">
-        <v>71.191487690338221</v>
+        <v>98.454939861171255</v>
       </c>
       <c r="W101">
-        <v>83.522883357920406</v>
+        <v>110.15179090884421</v>
       </c>
       <c r="X101" t="s">
         <v>25</v>
@@ -7963,73 +7964,73 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>10.433693847656251</v>
+        <v>15.041794433593751</v>
       </c>
       <c r="B102">
-        <v>17.105207519531248</v>
+        <v>27.910236002604169</v>
       </c>
       <c r="C102">
-        <v>10.4277783203125</v>
+        <v>23.823379720052081</v>
       </c>
       <c r="D102">
-        <v>2.271368154412083E-5</v>
+        <v>2.7511019133165001E-5</v>
       </c>
       <c r="E102">
-        <v>1.8776164303053199E-5</v>
+        <v>2.8369397902430991E-5</v>
       </c>
       <c r="F102">
-        <v>2.0193858202983861E-5</v>
+        <v>2.7535808528694361E-5</v>
       </c>
       <c r="G102">
-        <v>1.906288245709697E-5</v>
+        <v>2.836679797204082E-5</v>
       </c>
       <c r="H102">
-        <v>33.286592056715563</v>
+        <v>59.747690225506147</v>
       </c>
       <c r="I102">
-        <v>73.044194817233745</v>
+        <v>118.4044770880014</v>
       </c>
       <c r="J102">
-        <v>61.750959218190943</v>
+        <v>107.0712877703664</v>
       </c>
       <c r="K102">
-        <v>73.294141425050384</v>
+        <v>124.71600677200939</v>
       </c>
       <c r="L102">
-        <v>5.091059428577023E-2</v>
+        <v>5.2923213261953247E-2</v>
       </c>
       <c r="M102">
-        <v>3.8622548027439807E-2</v>
+        <v>5.0064863992277157E-2</v>
       </c>
       <c r="N102">
-        <v>4.3740651237092171E-2</v>
+        <v>5.1182212112683569E-2</v>
       </c>
       <c r="O102">
-        <v>3.9288036164409713E-2</v>
+        <v>5.0110098738932511E-2</v>
       </c>
       <c r="P102">
-        <v>2.5468216413737301</v>
+        <v>2.883166934720371</v>
       </c>
       <c r="Q102">
-        <v>2.740899587259741</v>
+        <v>3.1592037013485852</v>
       </c>
       <c r="R102">
-        <v>2.6596134992278082</v>
+        <v>2.9700550944586821</v>
       </c>
       <c r="S102">
-        <v>2.7459873642189412</v>
+        <v>3.1668793205579511</v>
       </c>
       <c r="T102">
-        <v>33.286592056715563</v>
+        <v>59.747690225506147</v>
       </c>
       <c r="U102">
-        <v>73.044194817233745</v>
+        <v>118.4044770880014</v>
       </c>
       <c r="V102">
-        <v>61.750959218190943</v>
+        <v>107.0712877703664</v>
       </c>
       <c r="W102">
-        <v>73.294141425050384</v>
+        <v>124.71600677200939</v>
       </c>
       <c r="X102" t="s">
         <v>25</v>
@@ -8037,73 +8038,73 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>6.8284147135416671</v>
+        <v>13.570900878906251</v>
       </c>
       <c r="B103">
-        <v>10.80799967447917</v>
+        <v>23.096606445312499</v>
       </c>
       <c r="C103">
-        <v>7.1653824869791656</v>
+        <v>21.538465983072921</v>
       </c>
       <c r="D103">
-        <v>1.232432086957464E-5</v>
+        <v>2.2942095773725781E-5</v>
       </c>
       <c r="E103">
-        <v>8.8658972139761937E-6</v>
+        <v>2.4567408477543579E-5</v>
       </c>
       <c r="F103">
-        <v>1.038082368961874E-5</v>
+        <v>2.3241332830295269E-5</v>
       </c>
       <c r="G103">
-        <v>9.2195439907223591E-6</v>
+        <v>2.4660818492709642E-5</v>
       </c>
       <c r="H103">
-        <v>22.850348051573778</v>
+        <v>44.614819378948269</v>
       </c>
       <c r="I103">
-        <v>49.09446529671677</v>
+        <v>91.816083771313416</v>
       </c>
       <c r="J103">
-        <v>40.919442855635019</v>
+        <v>79.354828494487691</v>
       </c>
       <c r="K103">
-        <v>45.164298181228887</v>
+        <v>94.957206881005234</v>
       </c>
       <c r="L103">
-        <v>3.9823716742191519E-2</v>
+        <v>5.2219586771568863E-2</v>
       </c>
       <c r="M103">
-        <v>2.8760310115768871E-2</v>
+        <v>4.8117768305715597E-2</v>
       </c>
       <c r="N103">
-        <v>3.3977582648493702E-2</v>
+        <v>5.039223408818104E-2</v>
       </c>
       <c r="O103">
-        <v>2.994285472405004E-2</v>
+        <v>4.9253516515374157E-2</v>
       </c>
       <c r="P103">
-        <v>1.9020871002271591</v>
+        <v>2.377418224890425</v>
       </c>
       <c r="Q103">
-        <v>1.9742117466116951</v>
+        <v>2.6973451773259418</v>
       </c>
       <c r="R103">
-        <v>1.94201889830518</v>
+        <v>2.5251506833117809</v>
       </c>
       <c r="S103">
-        <v>1.9668422567768631</v>
+        <v>2.7162067551730842</v>
       </c>
       <c r="T103">
-        <v>22.850348051573778</v>
+        <v>44.614819378948269</v>
       </c>
       <c r="U103">
-        <v>49.09446529671677</v>
+        <v>91.816083771313416</v>
       </c>
       <c r="V103">
-        <v>40.919442855635019</v>
+        <v>79.354828494487691</v>
       </c>
       <c r="W103">
-        <v>45.164298181228887</v>
+        <v>94.957206881005234</v>
       </c>
       <c r="X103" t="s">
         <v>25</v>
@@ -8111,73 +8112,73 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9.1319189453124991</v>
+        <v>13.713914388020831</v>
       </c>
       <c r="B104">
-        <v>18.224489746093749</v>
+        <v>24.499692382812501</v>
       </c>
       <c r="C104">
-        <v>12.266432291666669</v>
+        <v>21.686891276041671</v>
       </c>
       <c r="D104">
-        <v>2.0440141848569529E-5</v>
+        <v>2.253847783939815E-5</v>
       </c>
       <c r="E104">
-        <v>1.8457912200602662E-5</v>
+        <v>2.509110128098067E-5</v>
       </c>
       <c r="F104">
-        <v>2.016819234366792E-5</v>
+        <v>2.3362521859633849E-5</v>
       </c>
       <c r="G104">
-        <v>1.862441822421015E-5</v>
+        <v>2.4688359810439091E-5</v>
       </c>
       <c r="H104">
-        <v>35.012665198687849</v>
+        <v>40.325399377623462</v>
       </c>
       <c r="I104">
-        <v>75.64531388466655</v>
+        <v>91.479204051424489</v>
       </c>
       <c r="J104">
-        <v>61.576607759336191</v>
+        <v>77.344704845556222</v>
       </c>
       <c r="K104">
-        <v>72.650298791657619</v>
+        <v>88.515218613375069</v>
       </c>
       <c r="L104">
-        <v>4.7863881548680619E-2</v>
+        <v>5.266490689861613E-2</v>
       </c>
       <c r="M104">
-        <v>4.072053514121883E-2</v>
+        <v>5.2689047195560022E-2</v>
       </c>
       <c r="N104">
-        <v>4.5279592141695253E-2</v>
+        <v>5.25750203429751E-2</v>
       </c>
       <c r="O104">
-        <v>4.1149993487383393E-2</v>
+        <v>5.2001007588303852E-2</v>
       </c>
       <c r="P104">
-        <v>2.4334027759478198</v>
+        <v>2.1928468762749258</v>
       </c>
       <c r="Q104">
-        <v>2.6174526295817628</v>
+        <v>2.570213317851151</v>
       </c>
       <c r="R104">
-        <v>2.5237989994193688</v>
+        <v>2.353378331276458</v>
       </c>
       <c r="S104">
-        <v>2.622105656888142</v>
+        <v>2.5300651667980971</v>
       </c>
       <c r="T104">
-        <v>35.012665198687849</v>
+        <v>40.325399377623462</v>
       </c>
       <c r="U104">
-        <v>75.64531388466655</v>
+        <v>91.479204051424489</v>
       </c>
       <c r="V104">
-        <v>61.576607759336191</v>
+        <v>77.344704845556222</v>
       </c>
       <c r="W104">
-        <v>72.650298791657619</v>
+        <v>88.515218613375069</v>
       </c>
       <c r="X104" t="s">
         <v>25</v>
@@ -8185,73 +8186,73 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>10.023938802083331</v>
+        <v>14.712555338541669</v>
       </c>
       <c r="B105">
-        <v>21.090554199218751</v>
+        <v>27.54591796875</v>
       </c>
       <c r="C105">
-        <v>13.98397379557292</v>
+        <v>23.292896321614581</v>
       </c>
       <c r="D105">
-        <v>1.9611693413678259E-5</v>
+        <v>2.3263570504290569E-5</v>
       </c>
       <c r="E105">
-        <v>2.1642332787943972E-5</v>
+        <v>2.689851423420862E-5</v>
       </c>
       <c r="F105">
-        <v>1.9339481438338139E-5</v>
+        <v>2.3154889664398401E-5</v>
       </c>
       <c r="G105">
-        <v>2.179785857501526E-5</v>
+        <v>2.6357896104887991E-5</v>
       </c>
       <c r="H105">
-        <v>30.007589463614689</v>
+        <v>43.052617280737493</v>
       </c>
       <c r="I105">
-        <v>63.339688844265197</v>
+        <v>106.1911898396922</v>
       </c>
       <c r="J105">
-        <v>51.239529199591587</v>
+        <v>89.692072344976253</v>
       </c>
       <c r="K105">
-        <v>59.173691932420027</v>
+        <v>97.053245712872567</v>
       </c>
       <c r="L105">
-        <v>4.1502490541441978E-2</v>
+        <v>4.9352982619602859E-2</v>
       </c>
       <c r="M105">
-        <v>3.8317434952054162E-2</v>
+        <v>5.0587571023767791E-2</v>
       </c>
       <c r="N105">
-        <v>3.7294508234619272E-2</v>
+        <v>4.6111240884074318E-2</v>
       </c>
       <c r="O105">
-        <v>3.9532286841286547E-2</v>
+        <v>4.9640591596000747E-2</v>
       </c>
       <c r="P105">
-        <v>2.2166948731247418</v>
+        <v>2.4736898285208428</v>
       </c>
       <c r="Q105">
-        <v>2.5168856902892278</v>
+        <v>2.8770264258910472</v>
       </c>
       <c r="R105">
-        <v>2.2703731522183621</v>
+        <v>2.5908633559548462</v>
       </c>
       <c r="S105">
-        <v>2.5110767958207978</v>
+        <v>2.857481465831087</v>
       </c>
       <c r="T105">
-        <v>30.007589463614689</v>
+        <v>43.052617280737493</v>
       </c>
       <c r="U105">
-        <v>63.339688844265197</v>
+        <v>106.1911898396922</v>
       </c>
       <c r="V105">
-        <v>51.239529199591587</v>
+        <v>89.692072344976253</v>
       </c>
       <c r="W105">
-        <v>59.173691932420027</v>
+        <v>97.053245712872567</v>
       </c>
       <c r="X105" t="s">
         <v>25</v>
@@ -8259,73 +8260,73 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>9.3145703125000008</v>
+        <v>13.7386669921875</v>
       </c>
       <c r="B106">
-        <v>18.019176432291669</v>
+        <v>22.62125162760417</v>
       </c>
       <c r="C106">
-        <v>11.75988118489583</v>
+        <v>22.136984863281249</v>
       </c>
       <c r="D106">
-        <v>1.8443054498990522E-5</v>
+        <v>2.0721176044570449E-5</v>
       </c>
       <c r="E106">
-        <v>1.509364044090067E-5</v>
+        <v>2.301916097798363E-5</v>
       </c>
       <c r="F106">
-        <v>1.65808695895985E-5</v>
+        <v>2.0663074329500151E-5</v>
       </c>
       <c r="G106">
-        <v>1.4843938653505889E-5</v>
+        <v>2.2958296627633781E-5</v>
       </c>
       <c r="H106">
-        <v>46.316428672542749</v>
+        <v>47.299506828061872</v>
       </c>
       <c r="I106">
-        <v>88.524796475540967</v>
+        <v>97.42116245216198</v>
       </c>
       <c r="J106">
-        <v>79.525356172912026</v>
+        <v>82.796865858378709</v>
       </c>
       <c r="K106">
-        <v>98.226456501938046</v>
+        <v>93.287239309084981</v>
       </c>
       <c r="L106">
-        <v>4.7860483038784693E-2</v>
+        <v>4.2039975892702058E-2</v>
       </c>
       <c r="M106">
-        <v>3.7820390704589438E-2</v>
+        <v>4.1062579507285098E-2</v>
       </c>
       <c r="N106">
-        <v>4.1900008540099308E-2</v>
+        <v>4.2732819745613673E-2</v>
       </c>
       <c r="O106">
-        <v>3.7577499014946301E-2</v>
+        <v>4.1083563470314659E-2</v>
       </c>
       <c r="P106">
-        <v>2.6676322468206521</v>
+        <v>2.2227102935195808</v>
       </c>
       <c r="Q106">
-        <v>2.7702697549095601</v>
+        <v>2.4979221884013012</v>
       </c>
       <c r="R106">
-        <v>2.720633793810586</v>
+        <v>2.2867171675292601</v>
       </c>
       <c r="S106">
-        <v>2.7841331960598872</v>
+        <v>2.4932497899846231</v>
       </c>
       <c r="T106">
-        <v>46.316428672542749</v>
+        <v>47.299506828061872</v>
       </c>
       <c r="U106">
-        <v>88.524796475540967</v>
+        <v>97.42116245216198</v>
       </c>
       <c r="V106">
-        <v>79.525356172912026</v>
+        <v>82.796865858378709</v>
       </c>
       <c r="W106">
-        <v>98.226456501938046</v>
+        <v>93.287239309084981</v>
       </c>
       <c r="X106" t="s">
         <v>25</v>
@@ -8333,1260 +8334,1926 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>17.677606608072921</v>
+        <v>12.77849690755208</v>
       </c>
       <c r="B107">
-        <v>12.189493001302081</v>
+        <v>23.570036621093749</v>
       </c>
       <c r="C107">
-        <v>6.194578450520833</v>
+        <v>20.013755696614581</v>
       </c>
       <c r="D107">
-        <v>1.913814183795386E-5</v>
+        <v>2.3436618201838971E-5</v>
       </c>
       <c r="E107">
-        <v>1.9518906096236529E-5</v>
+        <v>2.2938278569719741E-5</v>
       </c>
       <c r="F107">
-        <v>1.9091400673728581E-5</v>
+        <v>2.2989468340051849E-5</v>
       </c>
       <c r="G107">
-        <v>1.973160490833159E-5</v>
+        <v>2.229978909734456E-5</v>
       </c>
       <c r="H107">
-        <v>107.0986900299383</v>
+        <v>47.733135639057117</v>
       </c>
       <c r="I107">
-        <v>150.7169960616597</v>
+        <v>101.0537268562278</v>
       </c>
       <c r="J107">
-        <v>144.48186588701699</v>
+        <v>82.996063298172942</v>
       </c>
       <c r="K107">
-        <v>169.01998954249569</v>
+        <v>98.924375393281693</v>
       </c>
       <c r="L107">
-        <v>2.791497638912829E-2</v>
+        <v>5.7708260530028782E-2</v>
       </c>
       <c r="M107">
-        <v>2.403119464903998E-2</v>
+        <v>5.1377190772572287E-2</v>
       </c>
       <c r="N107">
-        <v>2.478757113713637E-2</v>
+        <v>5.535141488659389E-2</v>
       </c>
       <c r="O107">
-        <v>2.4728718371986289E-2</v>
+        <v>5.0277198133916803E-2</v>
       </c>
       <c r="P107">
-        <v>2.505460571049587</v>
+        <v>2.4781424275027319</v>
       </c>
       <c r="Q107">
-        <v>2.6507523695744171</v>
+        <v>2.7472685085466089</v>
       </c>
       <c r="R107">
-        <v>2.61559454971357</v>
+        <v>2.5949027404499989</v>
       </c>
       <c r="S107">
-        <v>2.696945541865563</v>
+        <v>2.7375775676099541</v>
       </c>
       <c r="T107">
-        <v>107.0986900299383</v>
+        <v>47.733135639057117</v>
       </c>
       <c r="U107">
-        <v>150.7169960616597</v>
+        <v>101.0537268562278</v>
       </c>
       <c r="V107">
-        <v>144.48186588701699</v>
+        <v>82.996063298172942</v>
       </c>
       <c r="W107">
-        <v>169.01998954249569</v>
+        <v>98.924375393281693</v>
       </c>
       <c r="X107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>16.182169596354171</v>
+        <v>14.86751953125</v>
       </c>
       <c r="B108">
-        <v>11.98677490234375</v>
+        <v>32.050900878906248</v>
       </c>
       <c r="C108">
-        <v>7.1643375651041667</v>
+        <v>24.052985026041672</v>
       </c>
       <c r="D108">
-        <v>2.3026973490935219E-5</v>
+        <v>1.9041710064908909E-5</v>
       </c>
       <c r="E108">
-        <v>2.2914869822262351E-5</v>
+        <v>1.8921770448423681E-5</v>
       </c>
       <c r="F108">
-        <v>2.2361924286705182E-5</v>
+        <v>1.8744970494910959E-5</v>
       </c>
       <c r="G108">
-        <v>2.2741250314115381E-5</v>
+        <v>1.9826922521151859E-5</v>
       </c>
       <c r="H108">
-        <v>94.058618480321201</v>
+        <v>76.082300879885508</v>
       </c>
       <c r="I108">
-        <v>159.1290724325294</v>
+        <v>130.6965278306227</v>
       </c>
       <c r="J108">
-        <v>150.6854950825979</v>
+        <v>101.43543146202759</v>
       </c>
       <c r="K108">
-        <v>161.12635740932001</v>
+        <v>120.2755118489719</v>
       </c>
       <c r="L108">
-        <v>3.7387938529823722E-2</v>
+        <v>4.4613256089253317E-2</v>
       </c>
       <c r="M108">
-        <v>3.3480354412247379E-2</v>
+        <v>4.0555293822746682E-2</v>
       </c>
       <c r="N108">
-        <v>3.419085254138813E-2</v>
+        <v>4.3458501827582291E-2</v>
       </c>
       <c r="O108">
-        <v>3.4841970387042433E-2</v>
+        <v>4.3048254358503277E-2</v>
       </c>
       <c r="P108">
-        <v>2.693132656673495</v>
+        <v>2.4347111862793258</v>
       </c>
       <c r="Q108">
-        <v>2.9772724050353538</v>
+        <v>2.6050305484128589</v>
       </c>
       <c r="R108">
-        <v>2.914680522042687</v>
+        <v>2.4868948696714468</v>
       </c>
       <c r="S108">
-        <v>2.9750308125409308</v>
+        <v>2.6303450963179631</v>
       </c>
       <c r="T108">
-        <v>94.058618480321201</v>
+        <v>76.082300879885508</v>
       </c>
       <c r="U108">
-        <v>159.1290724325294</v>
+        <v>130.6965278306227</v>
       </c>
       <c r="V108">
-        <v>150.6854950825979</v>
+        <v>101.43543146202759</v>
       </c>
       <c r="W108">
-        <v>161.12635740932001</v>
+        <v>120.2755118489719</v>
       </c>
       <c r="X108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>14.99692789713542</v>
+        <v>14.19601155598958</v>
       </c>
       <c r="B109">
-        <v>11.349637858072921</v>
+        <v>25.24031494140625</v>
       </c>
       <c r="C109">
-        <v>8.270199381510416</v>
+        <v>21.861531575520829</v>
       </c>
       <c r="D109">
-        <v>2.288838842979871E-5</v>
+        <v>2.3386770914235541E-5</v>
       </c>
       <c r="E109">
-        <v>2.3403512778637791E-5</v>
+        <v>2.379349898934692E-5</v>
       </c>
       <c r="F109">
-        <v>2.303297616308261E-5</v>
+        <v>2.188899340000366E-5</v>
       </c>
       <c r="G109">
-        <v>2.343936878490367E-5</v>
+        <v>2.391947542591983E-5</v>
       </c>
       <c r="H109">
-        <v>71.608072734472117</v>
+        <v>62.086175393116093</v>
       </c>
       <c r="I109">
-        <v>97.96791477543529</v>
+        <v>118.85137498168901</v>
       </c>
       <c r="J109">
-        <v>92.733263289332925</v>
+        <v>102.85262448152081</v>
       </c>
       <c r="K109">
-        <v>109.7079754420481</v>
+        <v>121.8236912368874</v>
       </c>
       <c r="L109">
-        <v>3.7826507142388548E-2</v>
+        <v>4.9085670135849149E-2</v>
       </c>
       <c r="M109">
-        <v>3.3459144589347997E-2</v>
+        <v>4.2229459270915939E-2</v>
       </c>
       <c r="N109">
-        <v>3.489154923515432E-2</v>
+        <v>4.4386395502396071E-2</v>
       </c>
       <c r="O109">
-        <v>3.5197619316646708E-2</v>
+        <v>4.2088762600266838E-2</v>
       </c>
       <c r="P109">
-        <v>2.607811846930852</v>
+        <v>2.7713352504970739</v>
       </c>
       <c r="Q109">
-        <v>2.816747133985309</v>
+        <v>2.9900586056017331</v>
       </c>
       <c r="R109">
-        <v>2.750549734512139</v>
+        <v>2.8104674824266151</v>
       </c>
       <c r="S109">
-        <v>2.861907446884441</v>
+        <v>3.007509604439154</v>
       </c>
       <c r="T109">
-        <v>71.608072734472117</v>
+        <v>62.086175393116093</v>
       </c>
       <c r="U109">
-        <v>97.96791477543529</v>
+        <v>118.85137498168901</v>
       </c>
       <c r="V109">
-        <v>92.733263289332925</v>
+        <v>102.85262448152081</v>
       </c>
       <c r="W109">
-        <v>109.7079754420481</v>
+        <v>121.8236912368874</v>
       </c>
       <c r="X109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>18.531280924479169</v>
+        <v>10.229401855468749</v>
       </c>
       <c r="B110">
-        <v>9.8931160481770828</v>
+        <v>20.268359374999999</v>
       </c>
       <c r="C110">
-        <v>6.75498291015625</v>
+        <v>13.3364892578125</v>
       </c>
       <c r="D110">
-        <v>2.2469595418889609E-5</v>
+        <v>2.3751663745792571E-5</v>
       </c>
       <c r="E110">
-        <v>2.2965805826532551E-5</v>
+        <v>2.058365492610424E-5</v>
       </c>
       <c r="F110">
-        <v>2.2362679558783459E-5</v>
+        <v>2.211255728303316E-5</v>
       </c>
       <c r="G110">
-        <v>2.296510478941721E-5</v>
+        <v>2.0750587464174579E-5</v>
       </c>
       <c r="H110">
-        <v>103.4036825468507</v>
+        <v>36.896033758588317</v>
       </c>
       <c r="I110">
-        <v>172.68840649085169</v>
+        <v>82.541210991996564</v>
       </c>
       <c r="J110">
-        <v>168.50857834412929</v>
+        <v>69.674801917044078</v>
       </c>
       <c r="K110">
-        <v>178.93774757812031</v>
+        <v>79.384983417735995</v>
       </c>
       <c r="L110">
-        <v>3.5721455427220578E-2</v>
+        <v>5.2768377800740743E-2</v>
       </c>
       <c r="M110">
-        <v>2.9538608824914141E-2</v>
+        <v>4.3960742000714953E-2</v>
       </c>
       <c r="N110">
-        <v>2.7672277831173962E-2</v>
+        <v>4.8427605994072913E-2</v>
       </c>
       <c r="O110">
-        <v>2.9193153395216751E-2</v>
+        <v>4.4400279087142842E-2</v>
       </c>
       <c r="P110">
-        <v>2.7090246769651269</v>
+        <v>2.6669222475189289</v>
       </c>
       <c r="Q110">
-        <v>2.9614543120466208</v>
+        <v>2.8793124303999211</v>
       </c>
       <c r="R110">
-        <v>2.9172758363422528</v>
+        <v>2.7726159761065841</v>
       </c>
       <c r="S110">
-        <v>2.9609617332299392</v>
+        <v>2.8728364628942971</v>
       </c>
       <c r="T110">
-        <v>103.4036825468507</v>
+        <v>36.896033758588317</v>
       </c>
       <c r="U110">
-        <v>172.68840649085169</v>
+        <v>82.541210991996564</v>
       </c>
       <c r="V110">
-        <v>168.50857834412929</v>
+        <v>69.674801917044078</v>
       </c>
       <c r="W110">
-        <v>178.93774757812031</v>
+        <v>79.384983417735995</v>
       </c>
       <c r="X110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>19.446712239583331</v>
+        <v>9.5167488606770831</v>
       </c>
       <c r="B111">
-        <v>14.489658203125</v>
+        <v>19.7439501953125</v>
       </c>
       <c r="C111">
-        <v>9.5442431640625003</v>
+        <v>13.000387369791669</v>
       </c>
       <c r="D111">
-        <v>2.577017189708344E-5</v>
+        <v>2.0582329182562109E-5</v>
       </c>
       <c r="E111">
-        <v>2.7293615270630601E-5</v>
+        <v>1.9309389738209659E-5</v>
       </c>
       <c r="F111">
-        <v>2.626569131112291E-5</v>
+        <v>1.956722543093036E-5</v>
       </c>
       <c r="G111">
-        <v>2.8014844531362689E-5</v>
+        <v>1.9192998159616571E-5</v>
       </c>
       <c r="H111">
-        <v>77.741166150744732</v>
+        <v>33.117783565680597</v>
       </c>
       <c r="I111">
-        <v>145.75431249278799</v>
+        <v>79.93135115363846</v>
       </c>
       <c r="J111">
-        <v>141.64662557309481</v>
+        <v>67.368252230400969</v>
       </c>
       <c r="K111">
-        <v>148.9249154521477</v>
+        <v>76.293656190341508</v>
       </c>
       <c r="L111">
-        <v>3.6800134773754788E-2</v>
+        <v>4.8759903783257778E-2</v>
       </c>
       <c r="M111">
-        <v>3.2572977982948143E-2</v>
+        <v>4.0384670067274163E-2</v>
       </c>
       <c r="N111">
-        <v>3.2777402819729858E-2</v>
+        <v>4.342319929052893E-2</v>
       </c>
       <c r="O111">
-        <v>3.2505393301471897E-2</v>
+        <v>4.0352208531368741E-2</v>
       </c>
       <c r="P111">
-        <v>2.839973890895366</v>
+        <v>2.439805714846961</v>
       </c>
       <c r="Q111">
-        <v>3.2107509200750348</v>
+        <v>2.6557390383785231</v>
       </c>
       <c r="R111">
-        <v>3.1418990577002659</v>
+        <v>2.5189992052136261</v>
       </c>
       <c r="S111">
-        <v>3.2457269566355582</v>
+        <v>2.6441706876356879</v>
       </c>
       <c r="T111">
-        <v>77.741166150744732</v>
+        <v>33.117783565680597</v>
       </c>
       <c r="U111">
-        <v>145.75431249278799</v>
+        <v>79.93135115363846</v>
       </c>
       <c r="V111">
-        <v>141.64662557309481</v>
+        <v>67.368252230400969</v>
       </c>
       <c r="W111">
-        <v>148.9249154521477</v>
+        <v>76.293656190341508</v>
       </c>
       <c r="X111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>14.53449300130208</v>
+        <v>11.45374267578125</v>
       </c>
       <c r="B112">
-        <v>9.1102164713541658</v>
+        <v>22.359833170572919</v>
       </c>
       <c r="C112">
-        <v>7.4083723958333332</v>
+        <v>13.936188964843749</v>
       </c>
       <c r="D112">
-        <v>2.157769341633776E-5</v>
+        <v>2.7585194484328101E-5</v>
       </c>
       <c r="E112">
-        <v>2.4785752412769619E-5</v>
+        <v>2.320347079996333E-5</v>
       </c>
       <c r="F112">
-        <v>2.3098493337610399E-5</v>
+        <v>2.6477371711133879E-5</v>
       </c>
       <c r="G112">
-        <v>2.488970610649771E-5</v>
+        <v>2.339780806400432E-5</v>
       </c>
       <c r="H112">
-        <v>74.924197010200075</v>
+        <v>37.637656504558912</v>
       </c>
       <c r="I112">
-        <v>108.37223393713271</v>
+        <v>71.813516036883797</v>
       </c>
       <c r="J112">
-        <v>100.0115449856733</v>
+        <v>57.777704406143727</v>
       </c>
       <c r="K112">
-        <v>119.3324078688194</v>
+        <v>68.732313276691499</v>
       </c>
       <c r="L112">
-        <v>3.2837314619366988E-2</v>
+        <v>5.6856912912482523E-2</v>
       </c>
       <c r="M112">
-        <v>3.4872737011153961E-2</v>
+        <v>4.6323193891909913E-2</v>
       </c>
       <c r="N112">
-        <v>3.3074815582094831E-2</v>
+        <v>5.5321302731705872E-2</v>
       </c>
       <c r="O112">
-        <v>3.5130450994015683E-2</v>
+        <v>4.7285144519858817E-2</v>
       </c>
       <c r="P112">
-        <v>2.4199120107902519</v>
+        <v>2.8717885304284079</v>
       </c>
       <c r="Q112">
-        <v>2.7450549995767251</v>
+        <v>3.0508154272917372</v>
       </c>
       <c r="R112">
-        <v>2.634087482973837</v>
+        <v>2.9519018156828429</v>
       </c>
       <c r="S112">
-        <v>2.7880150588373951</v>
+        <v>3.044507579614085</v>
       </c>
       <c r="T112">
-        <v>74.924197010200075</v>
+        <v>37.637656504558912</v>
       </c>
       <c r="U112">
-        <v>108.37223393713271</v>
+        <v>71.813516036883797</v>
       </c>
       <c r="V112">
-        <v>100.0115449856733</v>
+        <v>57.777704406143727</v>
       </c>
       <c r="W112">
-        <v>119.3324078688194</v>
+        <v>68.732313276691499</v>
       </c>
       <c r="X112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>18.748426106770829</v>
+        <v>9.7568709309895834</v>
       </c>
       <c r="B113">
-        <v>8.2796915690104171</v>
+        <v>19.477654622395828</v>
       </c>
       <c r="C113">
-        <v>5.4949495442708329</v>
+        <v>13.30363037109375</v>
       </c>
       <c r="D113">
-        <v>1.6233059432273879E-5</v>
+        <v>1.7889208395219539E-5</v>
       </c>
       <c r="E113">
-        <v>1.6776631023595501E-5</v>
+        <v>1.7971756687287391E-5</v>
       </c>
       <c r="F113">
-        <v>1.5508320298992971E-5</v>
+        <v>1.7545283068212712E-5</v>
       </c>
       <c r="G113">
-        <v>1.6433560734216451E-5</v>
+        <v>1.7854286435540101E-5</v>
       </c>
       <c r="H113">
-        <v>86.532781164053802</v>
+        <v>30.926447255477541</v>
       </c>
       <c r="I113">
-        <v>146.59820111300971</v>
+        <v>67.190907536193421</v>
       </c>
       <c r="J113">
-        <v>138.45149248540631</v>
+        <v>55.363114306731987</v>
       </c>
       <c r="K113">
-        <v>147.51520061141119</v>
+        <v>65.231531418741923</v>
       </c>
       <c r="L113">
-        <v>2.750238903264891E-2</v>
+        <v>4.6645606557740749E-2</v>
       </c>
       <c r="M113">
-        <v>2.273712283718296E-2</v>
+        <v>4.1047214124865061E-2</v>
       </c>
       <c r="N113">
-        <v>2.1681205818684431E-2</v>
+        <v>4.293562179265413E-2</v>
       </c>
       <c r="O113">
-        <v>2.2985701007440781E-2</v>
+        <v>4.1440853060415853E-2</v>
       </c>
       <c r="P113">
-        <v>2.1932661119670991</v>
+        <v>2.208642966809284</v>
       </c>
       <c r="Q113">
-        <v>2.3819825223636668</v>
+        <v>2.445450844087484</v>
       </c>
       <c r="R113">
-        <v>2.3258901700521619</v>
+        <v>2.2912369277015641</v>
       </c>
       <c r="S113">
-        <v>2.3751885176173588</v>
+        <v>2.4374041069533199</v>
       </c>
       <c r="T113">
-        <v>86.532781164053802</v>
+        <v>30.926447255477541</v>
       </c>
       <c r="U113">
-        <v>146.59820111300971</v>
+        <v>67.190907536193421</v>
       </c>
       <c r="V113">
-        <v>138.45149248540631</v>
+        <v>55.363114306731987</v>
       </c>
       <c r="W113">
-        <v>147.51520061141119</v>
+        <v>65.231531418741923</v>
       </c>
       <c r="X113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>18.456914876302079</v>
+        <v>9.6582324218750006</v>
       </c>
       <c r="B114">
-        <v>8.7810196940104159</v>
+        <v>16.493927408854169</v>
       </c>
       <c r="C114">
-        <v>6.9570141601562501</v>
+        <v>10.147236328125</v>
       </c>
       <c r="D114">
-        <v>2.073902202569061E-5</v>
+        <v>1.8325852743789049E-5</v>
       </c>
       <c r="E114">
-        <v>2.0182817705376881E-5</v>
+        <v>1.6337476466674871E-5</v>
       </c>
       <c r="F114">
-        <v>1.9410483709378191E-5</v>
+        <v>1.687855191056051E-5</v>
       </c>
       <c r="G114">
-        <v>1.9764356799920629E-5</v>
+        <v>1.6377760992024379E-5</v>
       </c>
       <c r="H114">
-        <v>66.325572032804615</v>
+        <v>39.551372281396723</v>
       </c>
       <c r="I114">
-        <v>129.8368122125292</v>
+        <v>82.811168417356271</v>
       </c>
       <c r="J114">
-        <v>124.8965255394623</v>
+        <v>70.116982478361223</v>
       </c>
       <c r="K114">
-        <v>134.08231315394951</v>
+        <v>76.744024371381897</v>
       </c>
       <c r="L114">
-        <v>3.557608167022467E-2</v>
+        <v>4.54315610992626E-2</v>
       </c>
       <c r="M114">
-        <v>2.7901264864084389E-2</v>
+        <v>3.788685284473798E-2</v>
       </c>
       <c r="N114">
-        <v>2.7683985282806429E-2</v>
+        <v>3.9766239203985303E-2</v>
       </c>
       <c r="O114">
-        <v>2.6801824732944238E-2</v>
+        <v>3.8103547405700232E-2</v>
       </c>
       <c r="P114">
-        <v>2.3932539846426599</v>
+        <v>2.54694087149384</v>
       </c>
       <c r="Q114">
-        <v>2.6580803085310101</v>
+        <v>2.7555179369343912</v>
       </c>
       <c r="R114">
-        <v>2.6083551940289458</v>
+        <v>2.6512846112017558</v>
       </c>
       <c r="S114">
-        <v>2.654299263069372</v>
+        <v>2.7416393756928348</v>
       </c>
       <c r="T114">
-        <v>66.325572032804615</v>
+        <v>39.551372281396723</v>
       </c>
       <c r="U114">
-        <v>129.8368122125292</v>
+        <v>82.811168417356271</v>
       </c>
       <c r="V114">
-        <v>124.8965255394623</v>
+        <v>70.116982478361223</v>
       </c>
       <c r="W114">
-        <v>134.08231315394951</v>
+        <v>76.744024371381897</v>
       </c>
       <c r="X114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>25.738201497395831</v>
+        <v>8.9894417317708335</v>
       </c>
       <c r="B115">
-        <v>15.98677408854167</v>
+        <v>17.21961344401042</v>
       </c>
       <c r="C115">
-        <v>11.3837255859375</v>
+        <v>11.673717447916671</v>
       </c>
       <c r="D115">
-        <v>3.0011618523377591E-5</v>
+        <v>1.9243513675531508E-5</v>
       </c>
       <c r="E115">
-        <v>3.2381560531004527E-5</v>
+        <v>1.5836370851438051E-5</v>
       </c>
       <c r="F115">
-        <v>3.108233922528708E-5</v>
+        <v>1.7661142340686298E-5</v>
       </c>
       <c r="G115">
-        <v>3.2263861287191049E-5</v>
+        <v>1.5771935697902029E-5</v>
       </c>
       <c r="H115">
-        <v>103.2315486024321</v>
+        <v>34.37827850508387</v>
       </c>
       <c r="I115">
-        <v>186.836672288187</v>
+        <v>74.027425171160246</v>
       </c>
       <c r="J115">
-        <v>181.34509434255449</v>
+        <v>62.559361879534769</v>
       </c>
       <c r="K115">
-        <v>201.30105826989529</v>
+        <v>72.34890012102089</v>
       </c>
       <c r="L115">
-        <v>4.0869902065020863E-2</v>
+        <v>5.0157501841067133E-2</v>
       </c>
       <c r="M115">
-        <v>3.9969742669676032E-2</v>
+        <v>4.016056382540422E-2</v>
       </c>
       <c r="N115">
-        <v>3.8874495800065058E-2</v>
+        <v>4.4202265183994213E-2</v>
       </c>
       <c r="O115">
-        <v>3.9687978755413002E-2</v>
+        <v>3.994809742436977E-2</v>
       </c>
       <c r="P115">
-        <v>3.1349169221023958</v>
+        <v>2.53539754505075</v>
       </c>
       <c r="Q115">
-        <v>3.5744972990387058</v>
+        <v>2.6603129700715229</v>
       </c>
       <c r="R115">
-        <v>3.4852972309039432</v>
+        <v>2.5866995718597701</v>
       </c>
       <c r="S115">
-        <v>3.616916714816953</v>
+        <v>2.6576224715906811</v>
       </c>
       <c r="T115">
-        <v>103.2315486024321</v>
+        <v>34.37827850508387</v>
       </c>
       <c r="U115">
-        <v>186.836672288187</v>
+        <v>74.027425171160246</v>
       </c>
       <c r="V115">
-        <v>181.34509434255449</v>
+        <v>62.559361879534769</v>
       </c>
       <c r="W115">
-        <v>201.30105826989529</v>
+        <v>72.34890012102089</v>
       </c>
       <c r="X115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>16.729247233072918</v>
+        <v>9.6686938476562503</v>
       </c>
       <c r="B116">
-        <v>13.71280192057292</v>
+        <v>19.16756510416667</v>
       </c>
       <c r="C116">
-        <v>8.0016593424479172</v>
+        <v>12.42820231119792</v>
       </c>
       <c r="D116">
-        <v>2.3372790345975439E-5</v>
+        <v>2.3088005902714091E-5</v>
       </c>
       <c r="E116">
-        <v>2.639529345541227E-5</v>
+        <v>1.9888377429987549E-5</v>
       </c>
       <c r="F116">
-        <v>2.5128675397311111E-5</v>
+        <v>2.1179804301073071E-5</v>
       </c>
       <c r="G116">
-        <v>2.6271954445006451E-5</v>
+        <v>1.963189493307344E-5</v>
       </c>
       <c r="H116">
-        <v>72.5414703839064</v>
+        <v>33.098131969111321</v>
       </c>
       <c r="I116">
-        <v>117.2867401637661</v>
+        <v>78.379379897862066</v>
       </c>
       <c r="J116">
-        <v>108.5200545950398</v>
+        <v>66.135108817768781</v>
       </c>
       <c r="K116">
-        <v>126.92874987009711</v>
+        <v>75.897740671913553</v>
       </c>
       <c r="L116">
-        <v>3.6535807763031398E-2</v>
+        <v>5.3218333645682007E-2</v>
       </c>
       <c r="M116">
-        <v>3.8204279150358178E-2</v>
+        <v>4.3937304599929547E-2</v>
       </c>
       <c r="N116">
-        <v>3.8291842545299583E-2</v>
+        <v>4.7284585797033298E-2</v>
       </c>
       <c r="O116">
-        <v>3.8049550042906069E-2</v>
+        <v>4.3386915537560057E-2</v>
       </c>
       <c r="P116">
-        <v>2.5305247537284741</v>
+        <v>2.5984827986462329</v>
       </c>
       <c r="Q116">
-        <v>2.9262550034030879</v>
+        <v>2.8025673867238372</v>
       </c>
       <c r="R116">
-        <v>2.8097036508261271</v>
+        <v>2.6929428585553921</v>
       </c>
       <c r="S116">
-        <v>2.9508911159180928</v>
+        <v>2.798691007289364</v>
       </c>
       <c r="T116">
-        <v>72.5414703839064</v>
+        <v>33.098131969111321</v>
       </c>
       <c r="U116">
-        <v>117.2867401637661</v>
+        <v>78.379379897862066</v>
       </c>
       <c r="V116">
-        <v>108.5200545950398</v>
+        <v>66.135108817768781</v>
       </c>
       <c r="W116">
-        <v>126.92874987009711</v>
+        <v>75.897740671913553</v>
       </c>
       <c r="X116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>18.59899007161458</v>
+        <v>8.1453637695312509</v>
       </c>
       <c r="B117">
-        <v>9.9357063802083339</v>
+        <v>15.003806152343749</v>
       </c>
       <c r="C117">
-        <v>6.5618416341145833</v>
+        <v>9.838807779947917</v>
       </c>
       <c r="D117">
-        <v>1.900952663607849E-5</v>
+        <v>1.340215840386358E-5</v>
       </c>
       <c r="E117">
-        <v>1.8613292021971121E-5</v>
+        <v>1.082775862025518E-5</v>
       </c>
       <c r="F117">
-        <v>1.8130300884401789E-5</v>
+        <v>1.2429546071881109E-5</v>
       </c>
       <c r="G117">
-        <v>1.894061475460327E-5</v>
+        <v>1.084141645700551E-5</v>
       </c>
       <c r="H117">
-        <v>98.839535418449358</v>
+        <v>35.57953144165392</v>
       </c>
       <c r="I117">
-        <v>154.29421343289891</v>
+        <v>73.386279559015577</v>
       </c>
       <c r="J117">
-        <v>141.9975067282316</v>
+        <v>61.866895127931393</v>
       </c>
       <c r="K117">
-        <v>160.84460951698171</v>
+        <v>73.113199611482699</v>
       </c>
       <c r="L117">
-        <v>3.1447223333922969E-2</v>
+        <v>4.0100854608235391E-2</v>
       </c>
       <c r="M117">
-        <v>2.586043201362739E-2</v>
+        <v>3.1571011506035147E-2</v>
       </c>
       <c r="N117">
-        <v>2.580162531924473E-2</v>
+        <v>3.5783686286637841E-2</v>
       </c>
       <c r="O117">
-        <v>2.5946596589787901E-2</v>
+        <v>3.1469611028471768E-2</v>
       </c>
       <c r="P117">
-        <v>2.5497511751797002</v>
+        <v>2.3207496626851301</v>
       </c>
       <c r="Q117">
-        <v>2.7153448247678291</v>
+        <v>2.415107927217953</v>
       </c>
       <c r="R117">
-        <v>2.685464914708624</v>
+        <v>2.380755401729945</v>
       </c>
       <c r="S117">
-        <v>2.737596804836588</v>
+        <v>2.4125547408172179</v>
       </c>
       <c r="T117">
-        <v>98.839535418449358</v>
+        <v>35.57953144165392</v>
       </c>
       <c r="U117">
-        <v>154.29421343289891</v>
+        <v>73.386279559015577</v>
       </c>
       <c r="V117">
-        <v>141.9975067282316</v>
+        <v>61.866895127931393</v>
       </c>
       <c r="W117">
-        <v>160.84460951698171</v>
+        <v>73.113199611482699</v>
       </c>
       <c r="X117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>19.28744140625</v>
+        <v>9.5456599934895827</v>
       </c>
       <c r="B118">
-        <v>12.193868815104169</v>
+        <v>15.453659667968751</v>
       </c>
       <c r="C118">
-        <v>8.7055753580729167</v>
+        <v>9.6127571614583331</v>
       </c>
       <c r="D118">
-        <v>2.746030676442045E-5</v>
+        <v>1.8308600668992151E-5</v>
       </c>
       <c r="E118">
-        <v>2.7405431694869521E-5</v>
+        <v>1.4700663272416091E-5</v>
       </c>
       <c r="F118">
-        <v>2.766674311219947E-5</v>
+        <v>1.591613508206824E-5</v>
       </c>
       <c r="G118">
-        <v>2.70461638994195E-5</v>
+        <v>1.4840416728744671E-5</v>
       </c>
       <c r="H118">
-        <v>89.958993984887499</v>
+        <v>40.50061820374772</v>
       </c>
       <c r="I118">
-        <v>158.4744629891926</v>
+        <v>85.727501024882542</v>
       </c>
       <c r="J118">
-        <v>150.3716071415426</v>
+        <v>71.191487690338221</v>
       </c>
       <c r="K118">
-        <v>160.98583491055169</v>
+        <v>83.522883357920406</v>
       </c>
       <c r="L118">
-        <v>3.9688919277536587E-2</v>
+        <v>4.5720595802936352E-2</v>
       </c>
       <c r="M118">
-        <v>4.0625547511412168E-2</v>
+        <v>3.3576897703472601E-2</v>
       </c>
       <c r="N118">
-        <v>4.2319962366085227E-2</v>
+        <v>3.8413878876345918E-2</v>
       </c>
       <c r="O118">
-        <v>4.0538399918815492E-2</v>
+        <v>3.3940305166070529E-2</v>
       </c>
       <c r="P118">
-        <v>2.9225708099069592</v>
+        <v>2.4199357706414482</v>
       </c>
       <c r="Q118">
-        <v>3.3462001113799338</v>
+        <v>2.5417480467167359</v>
       </c>
       <c r="R118">
-        <v>3.3202544742856732</v>
+        <v>2.4746016412299898</v>
       </c>
       <c r="S118">
-        <v>3.3648833493294559</v>
+        <v>2.5391571288783661</v>
       </c>
       <c r="T118">
-        <v>89.958993984887499</v>
+        <v>40.50061820374772</v>
       </c>
       <c r="U118">
-        <v>158.4744629891926</v>
+        <v>85.727501024882542</v>
       </c>
       <c r="V118">
-        <v>150.3716071415426</v>
+        <v>71.191487690338221</v>
       </c>
       <c r="W118">
-        <v>160.98583491055169</v>
+        <v>83.522883357920406</v>
       </c>
       <c r="X118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>21.890400390625</v>
+        <v>10.433693847656251</v>
       </c>
       <c r="B119">
-        <v>12.28332763671875</v>
+        <v>17.105207519531248</v>
       </c>
       <c r="C119">
-        <v>7.4276188151041671</v>
+        <v>10.4277783203125</v>
       </c>
       <c r="D119">
-        <v>2.4176569907477591E-5</v>
+        <v>2.271368154412083E-5</v>
       </c>
       <c r="E119">
-        <v>2.046461788653437E-5</v>
+        <v>1.8776164303053199E-5</v>
       </c>
       <c r="F119">
-        <v>2.0048797755083179E-5</v>
+        <v>2.0193858202983861E-5</v>
       </c>
       <c r="G119">
-        <v>2.1062919920839681E-5</v>
+        <v>1.906288245709697E-5</v>
       </c>
       <c r="H119">
-        <v>74.71239328723027</v>
+        <v>33.286592056715563</v>
       </c>
       <c r="I119">
-        <v>146.1134860063367</v>
+        <v>73.044194817233745</v>
       </c>
       <c r="J119">
-        <v>130.91981516894111</v>
+        <v>61.750959218190943</v>
       </c>
       <c r="K119">
-        <v>138.64301372485821</v>
+        <v>73.294141425050384</v>
       </c>
       <c r="L119">
-        <v>4.3114122262902413E-2</v>
+        <v>5.091059428577023E-2</v>
       </c>
       <c r="M119">
-        <v>3.2270519138452178E-2</v>
+        <v>3.8622548027439807E-2</v>
       </c>
       <c r="N119">
-        <v>3.3159760830064729E-2</v>
+        <v>4.3740651237092171E-2</v>
       </c>
       <c r="O119">
-        <v>3.3625005004281151E-2</v>
+        <v>3.9288036164409713E-2</v>
       </c>
       <c r="P119">
-        <v>2.5790682568991601</v>
+        <v>2.5468216413737301</v>
       </c>
       <c r="Q119">
-        <v>2.7884430567784548</v>
+        <v>2.740899587259741</v>
       </c>
       <c r="R119">
-        <v>2.7140470255762521</v>
+        <v>2.6596134992278082</v>
       </c>
       <c r="S119">
-        <v>2.7969531349559902</v>
+        <v>2.7459873642189412</v>
       </c>
       <c r="T119">
-        <v>74.71239328723027</v>
+        <v>33.286592056715563</v>
       </c>
       <c r="U119">
-        <v>146.1134860063367</v>
+        <v>73.044194817233745</v>
       </c>
       <c r="V119">
-        <v>130.91981516894111</v>
+        <v>61.750959218190943</v>
       </c>
       <c r="W119">
-        <v>138.64301372485821</v>
+        <v>73.294141425050384</v>
       </c>
       <c r="X119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>14.15312744140625</v>
+        <v>6.8284147135416671</v>
       </c>
       <c r="B120">
-        <v>11.76201497395833</v>
+        <v>10.80799967447917</v>
       </c>
       <c r="C120">
-        <v>6.5040209960937503</v>
+        <v>7.1653824869791656</v>
       </c>
       <c r="D120">
-        <v>1.8754847953862891E-5</v>
+        <v>1.232432086957464E-5</v>
       </c>
       <c r="E120">
-        <v>1.8304289324211469E-5</v>
+        <v>8.8658972139761937E-6</v>
       </c>
       <c r="F120">
-        <v>1.7993149367166139E-5</v>
+        <v>1.038082368961874E-5</v>
       </c>
       <c r="G120">
-        <v>1.8058529949934829E-5</v>
+        <v>9.2195439907223591E-6</v>
       </c>
       <c r="H120">
-        <v>79.717957530095362</v>
+        <v>22.850348051573778</v>
       </c>
       <c r="I120">
-        <v>116.90982326164161</v>
+        <v>49.09446529671677</v>
       </c>
       <c r="J120">
-        <v>110.1269506558006</v>
+        <v>40.919442855635019</v>
       </c>
       <c r="K120">
-        <v>132.8921805204001</v>
+        <v>45.164298181228887</v>
       </c>
       <c r="L120">
-        <v>3.7160165472016837E-2</v>
+        <v>3.9823716742191519E-2</v>
       </c>
       <c r="M120">
-        <v>3.1191074904282658E-2</v>
+        <v>2.8760310115768871E-2</v>
       </c>
       <c r="N120">
-        <v>3.223095039051279E-2</v>
+        <v>3.3977582648493702E-2</v>
       </c>
       <c r="O120">
-        <v>3.002521050603995E-2</v>
+        <v>2.994285472405004E-2</v>
       </c>
       <c r="P120">
-        <v>2.3351267086425662</v>
+        <v>1.9020871002271591</v>
       </c>
       <c r="Q120">
-        <v>2.494200023135392</v>
+        <v>1.9742117466116951</v>
       </c>
       <c r="R120">
-        <v>2.4607552859848738</v>
+        <v>1.94201889830518</v>
       </c>
       <c r="S120">
-        <v>2.5406830907133591</v>
+        <v>1.9668422567768631</v>
       </c>
       <c r="T120">
-        <v>79.717957530095362</v>
+        <v>22.850348051573778</v>
       </c>
       <c r="U120">
-        <v>116.90982326164161</v>
+        <v>49.09446529671677</v>
       </c>
       <c r="V120">
-        <v>110.1269506558006</v>
+        <v>40.919442855635019</v>
       </c>
       <c r="W120">
-        <v>132.8921805204001</v>
+        <v>45.164298181228887</v>
       </c>
       <c r="X120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>13.53181722005208</v>
+        <v>9.1319189453124991</v>
       </c>
       <c r="B121">
-        <v>11.567370605468749</v>
+        <v>18.224489746093749</v>
       </c>
       <c r="C121">
-        <v>6.7682462565104169</v>
+        <v>12.266432291666669</v>
       </c>
       <c r="D121">
-        <v>1.9116956723983359E-5</v>
+        <v>2.0440141848569529E-5</v>
       </c>
       <c r="E121">
-        <v>2.3675186421751879E-5</v>
+        <v>1.8457912200602662E-5</v>
       </c>
       <c r="F121">
-        <v>2.2026731458320609E-5</v>
+        <v>2.016819234366792E-5</v>
       </c>
       <c r="G121">
-        <v>2.3199226411926401E-5</v>
+        <v>1.862441822421015E-5</v>
       </c>
       <c r="H121">
-        <v>51.843805156580139</v>
+        <v>35.012665198687849</v>
       </c>
       <c r="I121">
-        <v>86.611632213363961</v>
+        <v>75.64531388466655</v>
       </c>
       <c r="J121">
-        <v>79.324558195022945</v>
+        <v>61.576607759336191</v>
       </c>
       <c r="K121">
-        <v>88.508353319600587</v>
+        <v>72.650298791657619</v>
       </c>
       <c r="L121">
-        <v>3.1862578253459659E-2</v>
+        <v>4.7863881548680619E-2</v>
       </c>
       <c r="M121">
-        <v>3.3415111938102413E-2</v>
+        <v>4.072053514121883E-2</v>
       </c>
       <c r="N121">
-        <v>3.2591141953639893E-2</v>
+        <v>4.5279592141695253E-2</v>
       </c>
       <c r="O121">
-        <v>3.3217847387004507E-2</v>
+        <v>4.1149993487383393E-2</v>
       </c>
       <c r="P121">
-        <v>2.0840235612644982</v>
+        <v>2.4334027759478198</v>
       </c>
       <c r="Q121">
-        <v>2.4762254971357951</v>
+        <v>2.6174526295817628</v>
       </c>
       <c r="R121">
-        <v>2.3520544526578222</v>
+        <v>2.5237989994193688</v>
       </c>
       <c r="S121">
-        <v>2.4881518904520492</v>
+        <v>2.622105656888142</v>
       </c>
       <c r="T121">
-        <v>51.843805156580139</v>
+        <v>35.012665198687849</v>
       </c>
       <c r="U121">
-        <v>86.611632213363961</v>
+        <v>75.64531388466655</v>
       </c>
       <c r="V121">
-        <v>79.324558195022945</v>
+        <v>61.576607759336191</v>
       </c>
       <c r="W121">
-        <v>88.508353319600587</v>
+        <v>72.650298791657619</v>
       </c>
       <c r="X121" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>10.94594156901042</v>
+        <v>10.023938802083331</v>
       </c>
       <c r="B122">
-        <v>8.2138810221354159</v>
+        <v>21.090554199218751</v>
       </c>
       <c r="C122">
-        <v>6.8763142903645837</v>
+        <v>13.98397379557292</v>
       </c>
       <c r="D122">
-        <v>1.7593633203009E-5</v>
+        <v>1.9611693413678259E-5</v>
       </c>
       <c r="E122">
-        <v>1.6213493332385921E-5</v>
+        <v>2.1642332787943972E-5</v>
       </c>
       <c r="F122">
-        <v>1.57423642516792E-5</v>
+        <v>1.9339481438338139E-5</v>
       </c>
       <c r="G122">
-        <v>1.5586599429029951E-5</v>
+        <v>2.179785857501526E-5</v>
       </c>
       <c r="H122">
-        <v>52.719468876653252</v>
+        <v>30.007589463614689</v>
       </c>
       <c r="I122">
-        <v>86.023666034141229</v>
+        <v>63.339688844265197</v>
       </c>
       <c r="J122">
-        <v>79.854044999994173</v>
+        <v>51.239529199591587</v>
       </c>
       <c r="K122">
-        <v>90.167811018671969</v>
+        <v>59.173691932420027</v>
       </c>
       <c r="L122">
-        <v>4.0058914832970548E-2</v>
+        <v>4.1502490541441978E-2</v>
       </c>
       <c r="M122">
-        <v>3.1132936704597609E-2</v>
+        <v>3.8317434952054162E-2</v>
       </c>
       <c r="N122">
-        <v>3.4362576851484757E-2</v>
+        <v>3.7294508234619272E-2</v>
       </c>
       <c r="O122">
-        <v>3.05513577596172E-2</v>
+        <v>3.9532286841286547E-2</v>
       </c>
       <c r="P122">
-        <v>2.21467666313039</v>
+        <v>2.2166948731247418</v>
       </c>
       <c r="Q122">
-        <v>2.3369191339424531</v>
+        <v>2.5168856902892278</v>
       </c>
       <c r="R122">
-        <v>2.279082116694787</v>
+        <v>2.2703731522183621</v>
       </c>
       <c r="S122">
-        <v>2.3241136484203402</v>
+        <v>2.5110767958207978</v>
       </c>
       <c r="T122">
-        <v>52.719468876653252</v>
+        <v>30.007589463614689</v>
       </c>
       <c r="U122">
-        <v>86.023666034141229</v>
+        <v>63.339688844265197</v>
       </c>
       <c r="V122">
-        <v>79.854044999994173</v>
+        <v>51.239529199591587</v>
       </c>
       <c r="W122">
-        <v>90.167811018671969</v>
+        <v>59.173691932420027</v>
       </c>
       <c r="X122" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>19.093581542968749</v>
+        <v>9.3145703125000008</v>
       </c>
       <c r="B123">
-        <v>11.552443847656249</v>
+        <v>18.019176432291669</v>
       </c>
       <c r="C123">
-        <v>5.858849283854167</v>
+        <v>11.75988118489583</v>
       </c>
       <c r="D123">
-        <v>1.6665667628282869E-5</v>
+        <v>1.8443054498990522E-5</v>
       </c>
       <c r="E123">
-        <v>1.6474595175104949E-5</v>
+        <v>1.509364044090067E-5</v>
       </c>
       <c r="F123">
-        <v>1.654364431790686E-5</v>
+        <v>1.65808695895985E-5</v>
       </c>
       <c r="G123">
-        <v>1.7150583772256701E-5</v>
+        <v>1.4843938653505889E-5</v>
       </c>
       <c r="H123">
-        <v>113.05721841862309</v>
+        <v>46.316428672542749</v>
       </c>
       <c r="I123">
-        <v>194.46650203053861</v>
+        <v>88.524796475540967</v>
       </c>
       <c r="J123">
-        <v>177.20449001668251</v>
+        <v>79.525356172912026</v>
       </c>
       <c r="K123">
-        <v>179.9659713817874</v>
+        <v>98.226456501938046</v>
       </c>
       <c r="L123">
-        <v>2.8196728818336909E-2</v>
+        <v>4.7860483038784693E-2</v>
       </c>
       <c r="M123">
-        <v>2.3987157108683169E-2</v>
+        <v>3.7820390704589438E-2</v>
       </c>
       <c r="N123">
-        <v>2.427000770669532E-2</v>
+        <v>4.1900008540099308E-2</v>
       </c>
       <c r="O123">
-        <v>2.4279952790757321E-2</v>
+        <v>3.7577499014946301E-2</v>
       </c>
       <c r="P123">
-        <v>2.423285215709527</v>
+        <v>2.6676322468206521</v>
       </c>
       <c r="Q123">
-        <v>2.608369069526526</v>
+        <v>2.7702697549095601</v>
       </c>
       <c r="R123">
-        <v>2.5767180693181082</v>
+        <v>2.720633793810586</v>
       </c>
       <c r="S123">
-        <v>2.6029156638881088</v>
+        <v>2.7841331960598872</v>
       </c>
       <c r="T123">
-        <v>113.05721841862309</v>
+        <v>46.316428672542749</v>
       </c>
       <c r="U123">
-        <v>194.46650203053861</v>
+        <v>88.524796475540967</v>
       </c>
       <c r="V123">
-        <v>177.20449001668251</v>
+        <v>79.525356172912026</v>
       </c>
       <c r="W123">
-        <v>179.9659713817874</v>
+        <v>98.226456501938046</v>
       </c>
       <c r="X123" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>15.99902344</v>
+      </c>
+      <c r="B124">
+        <v>26.833739420000001</v>
+      </c>
+      <c r="C124">
+        <v>24.500573729999999</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2.68165E-5</v>
+      </c>
+      <c r="E124" s="1">
+        <v>3.5438999999999997E-5</v>
+      </c>
+      <c r="F124" s="1">
+        <v>3.1768299999999999E-5</v>
+      </c>
+      <c r="G124" s="1">
+        <v>3.4834800000000001E-5</v>
+      </c>
+      <c r="H124">
+        <v>36.800591449999999</v>
+      </c>
+      <c r="I124">
+        <v>105.6529017</v>
+      </c>
+      <c r="J124">
+        <v>89.603517420000003</v>
+      </c>
+      <c r="K124">
+        <v>97.657908710000001</v>
+      </c>
+      <c r="L124">
+        <v>5.6236631000000002E-2</v>
+      </c>
+      <c r="M124">
+        <v>6.1536340000000002E-2</v>
+      </c>
+      <c r="N124">
+        <v>5.6409464999999999E-2</v>
+      </c>
+      <c r="O124">
+        <v>6.081135E-2</v>
+      </c>
+      <c r="P124">
+        <v>2.5987850890000002</v>
+      </c>
+      <c r="Q124">
+        <v>3.3637910070000001</v>
+      </c>
+      <c r="R124">
+        <v>3.0288233550000001</v>
+      </c>
+      <c r="S124">
+        <v>3.3156202399999999</v>
+      </c>
+      <c r="T124">
+        <v>36.800591449999999</v>
+      </c>
+      <c r="U124">
+        <v>105.6529017</v>
+      </c>
+      <c r="V124">
+        <v>89.603517420000003</v>
+      </c>
+      <c r="W124">
+        <v>97.657908710000001</v>
+      </c>
+      <c r="X124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>12.06571289</v>
+      </c>
+      <c r="B125">
+        <v>21.821753739999998</v>
+      </c>
+      <c r="C125">
+        <v>17.93153564</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2.4484199999999998E-5</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2.74673E-5</v>
+      </c>
+      <c r="F125" s="1">
+        <v>2.6196100000000001E-5</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2.8022200000000001E-5</v>
+      </c>
+      <c r="H125">
+        <v>30.65236574</v>
+      </c>
+      <c r="I125">
+        <v>89.786569549999996</v>
+      </c>
+      <c r="J125">
+        <v>78.368831569999998</v>
+      </c>
+      <c r="K125">
+        <v>89.960565880000004</v>
+      </c>
+      <c r="L125">
+        <v>5.6895392000000003E-2</v>
+      </c>
+      <c r="M125">
+        <v>5.8243569000000002E-2</v>
+      </c>
+      <c r="N125">
+        <v>5.7466435000000003E-2</v>
+      </c>
+      <c r="O125">
+        <v>5.9033943999999998E-2</v>
+      </c>
+      <c r="P125">
+        <v>2.2778379819999999</v>
+      </c>
+      <c r="Q125">
+        <v>2.8081476250000001</v>
+      </c>
+      <c r="R125">
+        <v>2.5854517939999999</v>
+      </c>
+      <c r="S125">
+        <v>2.8386943539999998</v>
+      </c>
+      <c r="T125">
+        <v>30.65236574</v>
+      </c>
+      <c r="U125">
+        <v>89.786569549999996</v>
+      </c>
+      <c r="V125">
+        <v>78.368831569999998</v>
+      </c>
+      <c r="W125">
+        <v>89.960565880000004</v>
+      </c>
+      <c r="X125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>17.813220210000001</v>
+      </c>
+      <c r="B126">
+        <v>33.249343260000003</v>
+      </c>
+      <c r="C126">
+        <v>27.111359050000001</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3.9409799999999997E-5</v>
+      </c>
+      <c r="E126" s="1">
+        <v>3.9234799999999999E-5</v>
+      </c>
+      <c r="F126" s="1">
+        <v>3.8066599999999999E-5</v>
+      </c>
+      <c r="G126" s="1">
+        <v>3.98778E-5</v>
+      </c>
+      <c r="H126">
+        <v>64.530049779999999</v>
+      </c>
+      <c r="I126">
+        <v>139.383387</v>
+      </c>
+      <c r="J126">
+        <v>114.8092046</v>
+      </c>
+      <c r="K126">
+        <v>134.26884290000001</v>
+      </c>
+      <c r="L126">
+        <v>6.7050076E-2</v>
+      </c>
+      <c r="M126">
+        <v>5.4686149000000003E-2</v>
+      </c>
+      <c r="N126">
+        <v>5.9192186000000001E-2</v>
+      </c>
+      <c r="O126">
+        <v>5.6477174999999998E-2</v>
+      </c>
+      <c r="P126">
+        <v>3.8171210009999998</v>
+      </c>
+      <c r="Q126">
+        <v>4.2237854989999999</v>
+      </c>
+      <c r="R126">
+        <v>3.9558466569999999</v>
+      </c>
+      <c r="S126">
+        <v>4.2529034809999997</v>
+      </c>
+      <c r="T126">
+        <v>64.530049779999999</v>
+      </c>
+      <c r="U126">
+        <v>139.383387</v>
+      </c>
+      <c r="V126">
+        <v>114.8092046</v>
+      </c>
+      <c r="W126">
+        <v>134.26884290000001</v>
+      </c>
+      <c r="X126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>16.014475910000002</v>
+      </c>
+      <c r="B127">
+        <v>29.955955400000001</v>
+      </c>
+      <c r="C127">
+        <v>25.47666748</v>
+      </c>
+      <c r="D127" s="1">
+        <v>3.5426000000000003E-5</v>
+      </c>
+      <c r="E127" s="1">
+        <v>3.3090999999999999E-5</v>
+      </c>
+      <c r="F127" s="1">
+        <v>3.4597100000000001E-5</v>
+      </c>
+      <c r="G127" s="1">
+        <v>3.3901600000000001E-5</v>
+      </c>
+      <c r="H127">
+        <v>86.993202620000005</v>
+      </c>
+      <c r="I127">
+        <v>174.72560999999999</v>
+      </c>
+      <c r="J127">
+        <v>142.70114939999999</v>
+      </c>
+      <c r="K127">
+        <v>166.9485717</v>
+      </c>
+      <c r="L127">
+        <v>6.5066796999999996E-2</v>
+      </c>
+      <c r="M127">
+        <v>5.4487504999999999E-2</v>
+      </c>
+      <c r="N127">
+        <v>6.0518752000000002E-2</v>
+      </c>
+      <c r="O127">
+        <v>5.5313292999999999E-2</v>
+      </c>
+      <c r="P127">
+        <v>4.0173760730000003</v>
+      </c>
+      <c r="Q127">
+        <v>4.2474088840000004</v>
+      </c>
+      <c r="R127">
+        <v>4.0739239610000002</v>
+      </c>
+      <c r="S127">
+        <v>4.2690478790000004</v>
+      </c>
+      <c r="T127">
+        <v>86.993202620000005</v>
+      </c>
+      <c r="U127">
+        <v>174.72560999999999</v>
+      </c>
+      <c r="V127">
+        <v>142.70114939999999</v>
+      </c>
+      <c r="W127">
+        <v>166.9485717</v>
+      </c>
+      <c r="X127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>15.86422445</v>
+      </c>
+      <c r="B128">
+        <v>27.534559730000002</v>
+      </c>
+      <c r="C128">
+        <v>25.732428389999999</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2.7522199999999999E-5</v>
+      </c>
+      <c r="E128" s="1">
+        <v>3.4434200000000003E-5</v>
+      </c>
+      <c r="F128" s="1">
+        <v>3.2131000000000001E-5</v>
+      </c>
+      <c r="G128" s="1">
+        <v>3.42196E-5</v>
+      </c>
+      <c r="H128">
+        <v>49.274385909999999</v>
+      </c>
+      <c r="I128">
+        <v>114.78237350000001</v>
+      </c>
+      <c r="J128">
+        <v>102.4798718</v>
+      </c>
+      <c r="K128">
+        <v>117.3286512</v>
+      </c>
+      <c r="L128">
+        <v>5.2052337999999997E-2</v>
+      </c>
+      <c r="M128">
+        <v>6.1388897999999997E-2</v>
+      </c>
+      <c r="N128">
+        <v>5.699713E-2</v>
+      </c>
+      <c r="O128">
+        <v>6.1579386999999999E-2</v>
+      </c>
+      <c r="P128">
+        <v>2.836231889</v>
+      </c>
+      <c r="Q128">
+        <v>3.4167747149999999</v>
+      </c>
+      <c r="R128">
+        <v>3.1492637829999999</v>
+      </c>
+      <c r="S128">
+        <v>3.434526821</v>
+      </c>
+      <c r="T128">
+        <v>49.274385909999999</v>
+      </c>
+      <c r="U128">
+        <v>114.78237350000001</v>
+      </c>
+      <c r="V128">
+        <v>102.4798718</v>
+      </c>
+      <c r="W128">
+        <v>117.3286512</v>
+      </c>
+      <c r="X128" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>17.835077309999999</v>
+      </c>
+      <c r="B129">
+        <v>27.587429199999999</v>
+      </c>
+      <c r="C129">
+        <v>27.554968259999999</v>
+      </c>
+      <c r="D129" s="1">
+        <v>2.7424799999999999E-5</v>
+      </c>
+      <c r="E129" s="1">
+        <v>3.2869700000000001E-5</v>
+      </c>
+      <c r="F129" s="1">
+        <v>3.0530500000000002E-5</v>
+      </c>
+      <c r="G129" s="1">
+        <v>3.3673900000000003E-5</v>
+      </c>
+      <c r="H129">
+        <v>37.552196279999997</v>
+      </c>
+      <c r="I129">
+        <v>109.9226693</v>
+      </c>
+      <c r="J129">
+        <v>102.62071090000001</v>
+      </c>
+      <c r="K129">
+        <v>111.5837684</v>
+      </c>
+      <c r="L129">
+        <v>5.4716359999999999E-2</v>
+      </c>
+      <c r="M129">
+        <v>5.4914563999999999E-2</v>
+      </c>
+      <c r="N129">
+        <v>5.4652282000000003E-2</v>
+      </c>
+      <c r="O129">
+        <v>5.6140961000000003E-2</v>
+      </c>
+      <c r="P129">
+        <v>2.5770607540000001</v>
+      </c>
+      <c r="Q129">
+        <v>3.2133783729999998</v>
+      </c>
+      <c r="R129">
+        <v>2.9640795830000002</v>
+      </c>
+      <c r="S129">
+        <v>3.2503712939999998</v>
+      </c>
+      <c r="T129">
+        <v>37.552196279999997</v>
+      </c>
+      <c r="U129">
+        <v>109.9226693</v>
+      </c>
+      <c r="V129">
+        <v>102.62071090000001</v>
+      </c>
+      <c r="W129">
+        <v>111.5837684</v>
+      </c>
+      <c r="X129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>19.558898930000002</v>
+      </c>
+      <c r="B130">
+        <v>35.473256839999998</v>
+      </c>
+      <c r="C130">
+        <v>29.956498209999999</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4.9367299999999997E-5</v>
+      </c>
+      <c r="E130" s="1">
+        <v>5.0940299999999997E-5</v>
+      </c>
+      <c r="F130" s="1">
+        <v>5.0473999999999998E-5</v>
+      </c>
+      <c r="G130" s="1">
+        <v>5.0328899999999999E-5</v>
+      </c>
+      <c r="H130">
+        <v>87.062506900000002</v>
+      </c>
+      <c r="I130">
+        <v>166.08653219999999</v>
+      </c>
+      <c r="J130">
+        <v>135.00224370000001</v>
+      </c>
+      <c r="K130">
+        <v>165.7643453</v>
+      </c>
+      <c r="L130">
+        <v>6.5970261000000002E-2</v>
+      </c>
+      <c r="M130">
+        <v>7.4701928000000001E-2</v>
+      </c>
+      <c r="N130">
+        <v>6.9243336000000003E-2</v>
+      </c>
+      <c r="O130">
+        <v>7.3395981999999999E-2</v>
+      </c>
+      <c r="P130">
+        <v>4.8226206290000002</v>
+      </c>
+      <c r="Q130">
+        <v>5.3510823920000004</v>
+      </c>
+      <c r="R130">
+        <v>4.9480338189999999</v>
+      </c>
+      <c r="S130">
+        <v>5.3335928279999996</v>
+      </c>
+      <c r="T130">
+        <v>87.062506900000002</v>
+      </c>
+      <c r="U130">
+        <v>166.08653219999999</v>
+      </c>
+      <c r="V130">
+        <v>135.00224370000001</v>
+      </c>
+      <c r="W130">
+        <v>165.7643453</v>
+      </c>
+      <c r="X130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>18.099307450000001</v>
+      </c>
+      <c r="B131">
+        <v>32.433156740000001</v>
+      </c>
+      <c r="C131">
+        <v>29.163351240000001</v>
+      </c>
+      <c r="D131" s="1">
+        <v>3.9201900000000002E-5</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4.3427999999999998E-5</v>
+      </c>
+      <c r="F131" s="1">
+        <v>4.1615900000000002E-5</v>
+      </c>
+      <c r="G131" s="1">
+        <v>4.3471399999999999E-5</v>
+      </c>
+      <c r="H131">
+        <v>68.265546939999993</v>
+      </c>
+      <c r="I131">
+        <v>127.0129819</v>
+      </c>
+      <c r="J131">
+        <v>107.1767392</v>
+      </c>
+      <c r="K131">
+        <v>133.76626580000001</v>
+      </c>
+      <c r="L131">
+        <v>6.3550933000000004E-2</v>
+      </c>
+      <c r="M131">
+        <v>7.1476289999999998E-2</v>
+      </c>
+      <c r="N131">
+        <v>6.5550038000000005E-2</v>
+      </c>
+      <c r="O131">
+        <v>7.1984879000000002E-2</v>
+      </c>
+      <c r="P131">
+        <v>3.9510818919999999</v>
+      </c>
+      <c r="Q131">
+        <v>4.4668341939999996</v>
+      </c>
+      <c r="R131">
+        <v>4.0969503979999997</v>
+      </c>
+      <c r="S131">
+        <v>4.4853199110000004</v>
+      </c>
+      <c r="T131">
+        <v>68.265546939999993</v>
+      </c>
+      <c r="U131">
+        <v>127.0129819</v>
+      </c>
+      <c r="V131">
+        <v>107.1767392</v>
+      </c>
+      <c r="W131">
+        <v>133.76626580000001</v>
+      </c>
+      <c r="X131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>16.92159749</v>
+      </c>
+      <c r="B132">
+        <v>30.669409179999999</v>
+      </c>
+      <c r="C132">
+        <v>24.397690430000001</v>
+      </c>
+      <c r="D132" s="1">
+        <v>3.6925100000000003E-5</v>
+      </c>
+      <c r="E132" s="1">
+        <v>4.2136699999999999E-5</v>
+      </c>
+      <c r="F132" s="1">
+        <v>3.9211000000000001E-5</v>
+      </c>
+      <c r="G132" s="1">
+        <v>4.1964400000000001E-5</v>
+      </c>
+      <c r="H132">
+        <v>47.582123719999998</v>
+      </c>
+      <c r="I132">
+        <v>124.3324111</v>
+      </c>
+      <c r="J132">
+        <v>111.4252505</v>
+      </c>
+      <c r="K132">
+        <v>122.3043387</v>
+      </c>
+      <c r="L132">
+        <v>6.1377334999999998E-2</v>
+      </c>
+      <c r="M132">
+        <v>6.8705410999999994E-2</v>
+      </c>
+      <c r="N132">
+        <v>6.4138004999999998E-2</v>
+      </c>
+      <c r="O132">
+        <v>6.8337384000000001E-2</v>
+      </c>
+      <c r="P132">
+        <v>3.5830778080000001</v>
+      </c>
+      <c r="Q132">
+        <v>4.2451688839999999</v>
+      </c>
+      <c r="R132">
+        <v>3.8672083750000001</v>
+      </c>
+      <c r="S132">
+        <v>4.2510241009999996</v>
+      </c>
+      <c r="T132">
+        <v>47.582123719999998</v>
+      </c>
+      <c r="U132">
+        <v>124.3324111</v>
+      </c>
+      <c r="V132">
+        <v>111.4252505</v>
+      </c>
+      <c r="W132">
+        <v>122.3043387</v>
+      </c>
+      <c r="X132" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
